--- a/pruebas.xlsx
+++ b/pruebas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acont\Documents\Blockstream\BMN\Energía\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{307BFB73-678B-4242-863F-6107440FEC80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1A633F7-2630-4D09-A634-5ED33379E42F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,880 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="311">
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>network hashrate</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>Bitcoin price</t>
+  </si>
+  <si>
+    <t>05-09-2022</t>
+  </si>
+  <si>
+    <t>06-09-2022</t>
+  </si>
+  <si>
+    <t>07-09-2022</t>
+  </si>
+  <si>
+    <t>08-09-2022</t>
+  </si>
+  <si>
+    <t>09-09-2022</t>
+  </si>
+  <si>
+    <t>10-09-2022</t>
+  </si>
+  <si>
+    <t>11-09-2022</t>
+  </si>
+  <si>
+    <t>12-09-2022</t>
+  </si>
+  <si>
+    <t>13-09-2022</t>
+  </si>
+  <si>
+    <t>14-09-2022</t>
+  </si>
+  <si>
+    <t>15-09-2022</t>
+  </si>
+  <si>
+    <t>16-09-2022</t>
+  </si>
+  <si>
+    <t>17-09-2022</t>
+  </si>
+  <si>
+    <t>18-09-2022</t>
+  </si>
+  <si>
+    <t>19-09-2022</t>
+  </si>
+  <si>
+    <t>20-09-2022</t>
+  </si>
+  <si>
+    <t>21-09-2022</t>
+  </si>
+  <si>
+    <t>22-09-2022</t>
+  </si>
+  <si>
+    <t>23-09-2022</t>
+  </si>
+  <si>
+    <t>24-09-2022</t>
+  </si>
+  <si>
+    <t>25-09-2022</t>
+  </si>
+  <si>
+    <t>26-09-2022</t>
+  </si>
+  <si>
+    <t>27-09-2022</t>
+  </si>
+  <si>
+    <t>28-09-2022</t>
+  </si>
+  <si>
+    <t>29-09-2022</t>
+  </si>
+  <si>
+    <t>30-09-2022</t>
+  </si>
+  <si>
+    <t>01-10-2022</t>
+  </si>
+  <si>
+    <t>02-10-2022</t>
+  </si>
+  <si>
+    <t>03-10-2022</t>
+  </si>
+  <si>
+    <t>04-10-2022</t>
+  </si>
+  <si>
+    <t>05-10-2022</t>
+  </si>
+  <si>
+    <t>06-10-2022</t>
+  </si>
+  <si>
+    <t>07-10-2022</t>
+  </si>
+  <si>
+    <t>08-10-2022</t>
+  </si>
+  <si>
+    <t>09-10-2022</t>
+  </si>
+  <si>
+    <t>10-10-2022</t>
+  </si>
+  <si>
+    <t>11-10-2022</t>
+  </si>
+  <si>
+    <t>12-10-2022</t>
+  </si>
+  <si>
+    <t>13-10-2022</t>
+  </si>
+  <si>
+    <t>14-10-2022</t>
+  </si>
+  <si>
+    <t>15-10-2022</t>
+  </si>
+  <si>
+    <t>16-10-2022</t>
+  </si>
+  <si>
+    <t>17-10-2022</t>
+  </si>
+  <si>
+    <t>18-10-2022</t>
+  </si>
+  <si>
+    <t>19-10-2022</t>
+  </si>
+  <si>
+    <t>20-10-2022</t>
+  </si>
+  <si>
+    <t>21-10-2022</t>
+  </si>
+  <si>
+    <t>22-10-2022</t>
+  </si>
+  <si>
+    <t>23-10-2022</t>
+  </si>
+  <si>
+    <t>24-10-2022</t>
+  </si>
+  <si>
+    <t>25-10-2022</t>
+  </si>
+  <si>
+    <t>26-10-2022</t>
+  </si>
+  <si>
+    <t>27-10-2022</t>
+  </si>
+  <si>
+    <t>28-10-2022</t>
+  </si>
+  <si>
+    <t>29-10-2022</t>
+  </si>
+  <si>
+    <t>30-10-2022</t>
+  </si>
+  <si>
+    <t>31-10-2022</t>
+  </si>
+  <si>
+    <t>01-11-2022</t>
+  </si>
+  <si>
+    <t>02-11-2022</t>
+  </si>
+  <si>
+    <t>03-11-2022</t>
+  </si>
+  <si>
+    <t>04-11-2022</t>
+  </si>
+  <si>
+    <t>05-11-2022</t>
+  </si>
+  <si>
+    <t>06-11-2022</t>
+  </si>
+  <si>
+    <t>07-11-2022</t>
+  </si>
+  <si>
+    <t>08-11-2022</t>
+  </si>
+  <si>
+    <t>09-11-2022</t>
+  </si>
+  <si>
+    <t>10-11-2022</t>
+  </si>
+  <si>
+    <t>11-11-2022</t>
+  </si>
+  <si>
+    <t>12-11-2022</t>
+  </si>
+  <si>
+    <t>13-11-2022</t>
+  </si>
+  <si>
+    <t>14-11-2022</t>
+  </si>
+  <si>
+    <t>12-01-2022</t>
+  </si>
+  <si>
+    <t>13-01-2022</t>
+  </si>
+  <si>
+    <t>14-01-2022</t>
+  </si>
+  <si>
+    <t>15-01-2022</t>
+  </si>
+  <si>
+    <t>16-01-2022</t>
+  </si>
+  <si>
+    <t>17-01-2022</t>
+  </si>
+  <si>
+    <t>18-01-2022</t>
+  </si>
+  <si>
+    <t>19-01-2022</t>
+  </si>
+  <si>
+    <t>20-01-2022</t>
+  </si>
+  <si>
+    <t>21-01-2022</t>
+  </si>
+  <si>
+    <t>22-01-2022</t>
+  </si>
+  <si>
+    <t>23-01-2022</t>
+  </si>
+  <si>
+    <t>24-01-2022</t>
+  </si>
+  <si>
+    <t>25-01-2022</t>
+  </si>
+  <si>
+    <t>26-01-2022</t>
+  </si>
+  <si>
+    <t>27-01-2022</t>
+  </si>
+  <si>
+    <t>28-01-2022</t>
+  </si>
+  <si>
+    <t>29-01-2022</t>
+  </si>
+  <si>
+    <t>30-01-2022</t>
+  </si>
+  <si>
+    <t>31-01-2022</t>
+  </si>
+  <si>
+    <t>01-02-2022</t>
+  </si>
+  <si>
+    <t>02-02-2022</t>
+  </si>
+  <si>
+    <t>03-02-2022</t>
+  </si>
+  <si>
+    <t>04-02-2022</t>
+  </si>
+  <si>
+    <t>05-02-2022</t>
+  </si>
+  <si>
+    <t>06-02-2022</t>
+  </si>
+  <si>
+    <t>07-02-2022</t>
+  </si>
+  <si>
+    <t>08-02-2022</t>
+  </si>
+  <si>
+    <t>09-02-2022</t>
+  </si>
+  <si>
+    <t>10-02-2022</t>
+  </si>
+  <si>
+    <t>11-02-2022</t>
+  </si>
+  <si>
+    <t>12-02-2022</t>
+  </si>
+  <si>
+    <t>13-02-2022</t>
+  </si>
+  <si>
+    <t>14-02-2022</t>
+  </si>
+  <si>
+    <t>15-02-2022</t>
+  </si>
+  <si>
+    <t>16-02-2022</t>
+  </si>
+  <si>
+    <t>17-02-2022</t>
+  </si>
+  <si>
+    <t>18-02-2022</t>
+  </si>
+  <si>
+    <t>19-02-2022</t>
+  </si>
+  <si>
+    <t>20-02-2022</t>
+  </si>
+  <si>
+    <t>21-02-2022</t>
+  </si>
+  <si>
+    <t>22-02-2022</t>
+  </si>
+  <si>
+    <t>23-02-2022</t>
+  </si>
+  <si>
+    <t>24-02-2022</t>
+  </si>
+  <si>
+    <t>25-02-2022</t>
+  </si>
+  <si>
+    <t>26-02-2022</t>
+  </si>
+  <si>
+    <t>27-02-2022</t>
+  </si>
+  <si>
+    <t>28-02-2022</t>
+  </si>
+  <si>
+    <t>01-03-2022</t>
+  </si>
+  <si>
+    <t>02-03-2022</t>
+  </si>
+  <si>
+    <t>03-03-2022</t>
+  </si>
+  <si>
+    <t>04-03-2022</t>
+  </si>
+  <si>
+    <t>05-03-2022</t>
+  </si>
+  <si>
+    <t>06-03-2022</t>
+  </si>
+  <si>
+    <t>07-03-2022</t>
+  </si>
+  <si>
+    <t>08-03-2022</t>
+  </si>
+  <si>
+    <t>09-03-2022</t>
+  </si>
+  <si>
+    <t>10-03-2022</t>
+  </si>
+  <si>
+    <t>11-03-2022</t>
+  </si>
+  <si>
+    <t>12-03-2022</t>
+  </si>
+  <si>
+    <t>13-03-2022</t>
+  </si>
+  <si>
+    <t>14-03-2022</t>
+  </si>
+  <si>
+    <t>15-03-2022</t>
+  </si>
+  <si>
+    <t>16-03-2022</t>
+  </si>
+  <si>
+    <t>17-03-2022</t>
+  </si>
+  <si>
+    <t>18-03-2022</t>
+  </si>
+  <si>
+    <t>19-03-2022</t>
+  </si>
+  <si>
+    <t>20-03-2022</t>
+  </si>
+  <si>
+    <t>21-03-2022</t>
+  </si>
+  <si>
+    <t>22-03-2022</t>
+  </si>
+  <si>
+    <t>23-03-2022</t>
+  </si>
+  <si>
+    <t>24-03-2022</t>
+  </si>
+  <si>
+    <t>25-03-2022</t>
+  </si>
+  <si>
+    <t>26-03-2022</t>
+  </si>
+  <si>
+    <t>27-03-2022</t>
+  </si>
+  <si>
+    <t>28-03-2022</t>
+  </si>
+  <si>
+    <t>29-03-2022</t>
+  </si>
+  <si>
+    <t>30-03-2022</t>
+  </si>
+  <si>
+    <t>31-03-2022</t>
+  </si>
+  <si>
+    <t>01-04-2022</t>
+  </si>
+  <si>
+    <t>02-04-2022</t>
+  </si>
+  <si>
+    <t>03-04-2022</t>
+  </si>
+  <si>
+    <t>04-04-2022</t>
+  </si>
+  <si>
+    <t>05-04-2022</t>
+  </si>
+  <si>
+    <t>06-04-2022</t>
+  </si>
+  <si>
+    <t>07-04-2022</t>
+  </si>
+  <si>
+    <t>08-04-2022</t>
+  </si>
+  <si>
+    <t>09-04-2022</t>
+  </si>
+  <si>
+    <t>10-04-2022</t>
+  </si>
+  <si>
+    <t>11-04-2022</t>
+  </si>
+  <si>
+    <t>12-04-2022</t>
+  </si>
+  <si>
+    <t>13-04-2022</t>
+  </si>
+  <si>
+    <t>14-04-2022</t>
+  </si>
+  <si>
+    <t>15-04-2022</t>
+  </si>
+  <si>
+    <t>16-04-2022</t>
+  </si>
+  <si>
+    <t>17-04-2022</t>
+  </si>
+  <si>
+    <t>18-04-2022</t>
+  </si>
+  <si>
+    <t>19-04-2022</t>
+  </si>
+  <si>
+    <t>20-04-2022</t>
+  </si>
+  <si>
+    <t>21-04-2022</t>
+  </si>
+  <si>
+    <t>22-04-2022</t>
+  </si>
+  <si>
+    <t>23-04-2022</t>
+  </si>
+  <si>
+    <t>24-04-2022</t>
+  </si>
+  <si>
+    <t>25-04-2022</t>
+  </si>
+  <si>
+    <t>26-04-2022</t>
+  </si>
+  <si>
+    <t>27-04-2022</t>
+  </si>
+  <si>
+    <t>28-04-2022</t>
+  </si>
+  <si>
+    <t>29-04-2022</t>
+  </si>
+  <si>
+    <t>30-04-2022</t>
+  </si>
+  <si>
+    <t>01-05-2022</t>
+  </si>
+  <si>
+    <t>02-05-2022</t>
+  </si>
+  <si>
+    <t>03-05-2022</t>
+  </si>
+  <si>
+    <t>04-05-2022</t>
+  </si>
+  <si>
+    <t>05-05-2022</t>
+  </si>
+  <si>
+    <t>06-05-2022</t>
+  </si>
+  <si>
+    <t>07-05-2022</t>
+  </si>
+  <si>
+    <t>08-05-2022</t>
+  </si>
+  <si>
+    <t>09-05-2022</t>
+  </si>
+  <si>
+    <t>10-05-2022</t>
+  </si>
+  <si>
+    <t>11-05-2022</t>
+  </si>
+  <si>
+    <t>12-05-2022</t>
+  </si>
+  <si>
+    <t>13-05-2022</t>
+  </si>
+  <si>
+    <t>14-05-2022</t>
+  </si>
+  <si>
+    <t>15-05-2022</t>
+  </si>
+  <si>
+    <t>16-05-2022</t>
+  </si>
+  <si>
+    <t>17-05-2022</t>
+  </si>
+  <si>
+    <t>18-05-2022</t>
+  </si>
+  <si>
+    <t>19-05-2022</t>
+  </si>
+  <si>
+    <t>20-05-2022</t>
+  </si>
+  <si>
+    <t>21-05-2022</t>
+  </si>
+  <si>
+    <t>22-05-2022</t>
+  </si>
+  <si>
+    <t>23-05-2022</t>
+  </si>
+  <si>
+    <t>24-05-2022</t>
+  </si>
+  <si>
+    <t>25-05-2022</t>
+  </si>
+  <si>
+    <t>26-05-2022</t>
+  </si>
+  <si>
+    <t>27-05-2022</t>
+  </si>
+  <si>
+    <t>28-05-2022</t>
+  </si>
+  <si>
+    <t>29-05-2022</t>
+  </si>
+  <si>
+    <t>30-05-2022</t>
+  </si>
+  <si>
+    <t>31-05-2022</t>
+  </si>
+  <si>
+    <t>01-06-2022</t>
+  </si>
+  <si>
+    <t>02-06-2022</t>
+  </si>
+  <si>
+    <t>03-06-2022</t>
+  </si>
+  <si>
+    <t>04-06-2022</t>
+  </si>
+  <si>
+    <t>05-06-2022</t>
+  </si>
+  <si>
+    <t>06-06-2022</t>
+  </si>
+  <si>
+    <t>07-06-2022</t>
+  </si>
+  <si>
+    <t>08-06-2022</t>
+  </si>
+  <si>
+    <t>09-06-2022</t>
+  </si>
+  <si>
+    <t>10-06-2022</t>
+  </si>
+  <si>
+    <t>11-06-2022</t>
+  </si>
+  <si>
+    <t>12-06-2022</t>
+  </si>
+  <si>
+    <t>13-06-2022</t>
+  </si>
+  <si>
+    <t>14-06-2022</t>
+  </si>
+  <si>
+    <t>15-06-2022</t>
+  </si>
+  <si>
+    <t>16-06-2022</t>
+  </si>
+  <si>
+    <t>17-06-2022</t>
+  </si>
+  <si>
+    <t>18-06-2022</t>
+  </si>
+  <si>
+    <t>19-06-2022</t>
+  </si>
+  <si>
+    <t>20-06-2022</t>
+  </si>
+  <si>
+    <t>21-06-2022</t>
+  </si>
+  <si>
+    <t>22-06-2022</t>
+  </si>
+  <si>
+    <t>23-06-2022</t>
+  </si>
+  <si>
+    <t>24-06-2022</t>
+  </si>
+  <si>
+    <t>25-06-2022</t>
+  </si>
+  <si>
+    <t>26-06-2022</t>
+  </si>
+  <si>
+    <t>27-06-2022</t>
+  </si>
+  <si>
+    <t>28-06-2022</t>
+  </si>
+  <si>
+    <t>29-06-2022</t>
+  </si>
+  <si>
+    <t>30-06-2022</t>
+  </si>
+  <si>
+    <t>01-07-2022</t>
+  </si>
+  <si>
+    <t>02-07-2022</t>
+  </si>
+  <si>
+    <t>03-07-2022</t>
+  </si>
+  <si>
+    <t>04-07-2022</t>
+  </si>
+  <si>
+    <t>05-07-2022</t>
+  </si>
+  <si>
+    <t>06-07-2022</t>
+  </si>
+  <si>
+    <t>07-07-2022</t>
+  </si>
+  <si>
+    <t>08-07-2022</t>
+  </si>
+  <si>
+    <t>09-07-2022</t>
+  </si>
+  <si>
+    <t>10-07-2022</t>
+  </si>
+  <si>
+    <t>11-07-2022</t>
+  </si>
+  <si>
+    <t>12-07-2022</t>
+  </si>
+  <si>
+    <t>13-07-2022</t>
+  </si>
+  <si>
+    <t>14-07-2022</t>
+  </si>
+  <si>
+    <t>15-07-2022</t>
+  </si>
+  <si>
+    <t>16-07-2022</t>
+  </si>
+  <si>
+    <t>17-07-2022</t>
+  </si>
+  <si>
+    <t>18-07-2022</t>
+  </si>
+  <si>
+    <t>19-07-2022</t>
+  </si>
+  <si>
+    <t>20-07-2022</t>
+  </si>
+  <si>
+    <t>21-07-2022</t>
+  </si>
+  <si>
+    <t>22-07-2022</t>
+  </si>
+  <si>
+    <t>23-07-2022</t>
+  </si>
+  <si>
+    <t>24-07-2022</t>
+  </si>
+  <si>
+    <t>25-07-2022</t>
+  </si>
+  <si>
+    <t>26-07-2022</t>
+  </si>
+  <si>
+    <t>27-07-2022</t>
+  </si>
+  <si>
+    <t>28-07-2022</t>
+  </si>
+  <si>
+    <t>29-07-2022</t>
+  </si>
+  <si>
+    <t>30-07-2022</t>
+  </si>
+  <si>
+    <t>31-07-2022</t>
+  </si>
+  <si>
+    <t>01-08-2022</t>
+  </si>
+  <si>
+    <t>02-08-2022</t>
+  </si>
+  <si>
+    <t>03-08-2022</t>
+  </si>
+  <si>
+    <t>04-08-2022</t>
+  </si>
+  <si>
+    <t>05-08-2022</t>
+  </si>
+  <si>
+    <t>06-08-2022</t>
+  </si>
+  <si>
+    <t>07-08-2022</t>
+  </si>
+  <si>
+    <t>08-08-2022</t>
+  </si>
+  <si>
+    <t>09-08-2022</t>
+  </si>
+  <si>
+    <t>10-08-2022</t>
+  </si>
+  <si>
+    <t>11-08-2022</t>
+  </si>
+  <si>
+    <t>12-08-2022</t>
+  </si>
+  <si>
+    <t>13-08-2022</t>
+  </si>
+  <si>
+    <t>14-08-2022</t>
+  </si>
+  <si>
+    <t>15-08-2022</t>
+  </si>
   <si>
     <t>16-08-2022</t>
   </si>
@@ -94,702 +967,6 @@
   </si>
   <si>
     <t>04-09-2022</t>
-  </si>
-  <si>
-    <t>05-09-2022</t>
-  </si>
-  <si>
-    <t>06-09-2022</t>
-  </si>
-  <si>
-    <t>07-09-2022</t>
-  </si>
-  <si>
-    <t>08-09-2022</t>
-  </si>
-  <si>
-    <t>09-09-2022</t>
-  </si>
-  <si>
-    <t>10-09-2022</t>
-  </si>
-  <si>
-    <t>11-09-2022</t>
-  </si>
-  <si>
-    <t>12-09-2022</t>
-  </si>
-  <si>
-    <t>13-09-2022</t>
-  </si>
-  <si>
-    <t>14-09-2022</t>
-  </si>
-  <si>
-    <t>15-09-2022</t>
-  </si>
-  <si>
-    <t>16-09-2022</t>
-  </si>
-  <si>
-    <t>17-09-2022</t>
-  </si>
-  <si>
-    <t>18-09-2022</t>
-  </si>
-  <si>
-    <t>19-09-2022</t>
-  </si>
-  <si>
-    <t>20-09-2022</t>
-  </si>
-  <si>
-    <t>12-01-2022</t>
-  </si>
-  <si>
-    <t>13-01-2022</t>
-  </si>
-  <si>
-    <t>14-01-2022</t>
-  </si>
-  <si>
-    <t>15-01-2022</t>
-  </si>
-  <si>
-    <t>16-01-2022</t>
-  </si>
-  <si>
-    <t>17-01-2022</t>
-  </si>
-  <si>
-    <t>18-01-2022</t>
-  </si>
-  <si>
-    <t>19-01-2022</t>
-  </si>
-  <si>
-    <t>20-01-2022</t>
-  </si>
-  <si>
-    <t>21-01-2022</t>
-  </si>
-  <si>
-    <t>22-01-2022</t>
-  </si>
-  <si>
-    <t>23-01-2022</t>
-  </si>
-  <si>
-    <t>24-01-2022</t>
-  </si>
-  <si>
-    <t>25-01-2022</t>
-  </si>
-  <si>
-    <t>26-01-2022</t>
-  </si>
-  <si>
-    <t>27-01-2022</t>
-  </si>
-  <si>
-    <t>28-01-2022</t>
-  </si>
-  <si>
-    <t>29-01-2022</t>
-  </si>
-  <si>
-    <t>30-01-2022</t>
-  </si>
-  <si>
-    <t>31-01-2022</t>
-  </si>
-  <si>
-    <t>01-02-2022</t>
-  </si>
-  <si>
-    <t>02-02-2022</t>
-  </si>
-  <si>
-    <t>03-02-2022</t>
-  </si>
-  <si>
-    <t>04-02-2022</t>
-  </si>
-  <si>
-    <t>05-02-2022</t>
-  </si>
-  <si>
-    <t>06-02-2022</t>
-  </si>
-  <si>
-    <t>07-02-2022</t>
-  </si>
-  <si>
-    <t>08-02-2022</t>
-  </si>
-  <si>
-    <t>09-02-2022</t>
-  </si>
-  <si>
-    <t>10-02-2022</t>
-  </si>
-  <si>
-    <t>11-02-2022</t>
-  </si>
-  <si>
-    <t>12-02-2022</t>
-  </si>
-  <si>
-    <t>13-02-2022</t>
-  </si>
-  <si>
-    <t>14-02-2022</t>
-  </si>
-  <si>
-    <t>15-02-2022</t>
-  </si>
-  <si>
-    <t>16-02-2022</t>
-  </si>
-  <si>
-    <t>17-02-2022</t>
-  </si>
-  <si>
-    <t>18-02-2022</t>
-  </si>
-  <si>
-    <t>19-02-2022</t>
-  </si>
-  <si>
-    <t>20-02-2022</t>
-  </si>
-  <si>
-    <t>21-02-2022</t>
-  </si>
-  <si>
-    <t>22-02-2022</t>
-  </si>
-  <si>
-    <t>23-02-2022</t>
-  </si>
-  <si>
-    <t>24-02-2022</t>
-  </si>
-  <si>
-    <t>25-02-2022</t>
-  </si>
-  <si>
-    <t>26-02-2022</t>
-  </si>
-  <si>
-    <t>27-02-2022</t>
-  </si>
-  <si>
-    <t>28-02-2022</t>
-  </si>
-  <si>
-    <t>01-03-2022</t>
-  </si>
-  <si>
-    <t>02-03-2022</t>
-  </si>
-  <si>
-    <t>03-03-2022</t>
-  </si>
-  <si>
-    <t>04-03-2022</t>
-  </si>
-  <si>
-    <t>05-03-2022</t>
-  </si>
-  <si>
-    <t>06-03-2022</t>
-  </si>
-  <si>
-    <t>07-03-2022</t>
-  </si>
-  <si>
-    <t>08-03-2022</t>
-  </si>
-  <si>
-    <t>09-03-2022</t>
-  </si>
-  <si>
-    <t>10-03-2022</t>
-  </si>
-  <si>
-    <t>11-03-2022</t>
-  </si>
-  <si>
-    <t>12-03-2022</t>
-  </si>
-  <si>
-    <t>13-03-2022</t>
-  </si>
-  <si>
-    <t>14-03-2022</t>
-  </si>
-  <si>
-    <t>15-03-2022</t>
-  </si>
-  <si>
-    <t>16-03-2022</t>
-  </si>
-  <si>
-    <t>17-03-2022</t>
-  </si>
-  <si>
-    <t>18-03-2022</t>
-  </si>
-  <si>
-    <t>19-03-2022</t>
-  </si>
-  <si>
-    <t>20-03-2022</t>
-  </si>
-  <si>
-    <t>21-03-2022</t>
-  </si>
-  <si>
-    <t>22-03-2022</t>
-  </si>
-  <si>
-    <t>23-03-2022</t>
-  </si>
-  <si>
-    <t>24-03-2022</t>
-  </si>
-  <si>
-    <t>25-03-2022</t>
-  </si>
-  <si>
-    <t>26-03-2022</t>
-  </si>
-  <si>
-    <t>27-03-2022</t>
-  </si>
-  <si>
-    <t>28-03-2022</t>
-  </si>
-  <si>
-    <t>29-03-2022</t>
-  </si>
-  <si>
-    <t>30-03-2022</t>
-  </si>
-  <si>
-    <t>31-03-2022</t>
-  </si>
-  <si>
-    <t>01-04-2022</t>
-  </si>
-  <si>
-    <t>02-04-2022</t>
-  </si>
-  <si>
-    <t>03-04-2022</t>
-  </si>
-  <si>
-    <t>04-04-2022</t>
-  </si>
-  <si>
-    <t>05-04-2022</t>
-  </si>
-  <si>
-    <t>06-04-2022</t>
-  </si>
-  <si>
-    <t>07-04-2022</t>
-  </si>
-  <si>
-    <t>08-04-2022</t>
-  </si>
-  <si>
-    <t>09-04-2022</t>
-  </si>
-  <si>
-    <t>10-04-2022</t>
-  </si>
-  <si>
-    <t>11-04-2022</t>
-  </si>
-  <si>
-    <t>12-04-2022</t>
-  </si>
-  <si>
-    <t>13-04-2022</t>
-  </si>
-  <si>
-    <t>14-04-2022</t>
-  </si>
-  <si>
-    <t>15-04-2022</t>
-  </si>
-  <si>
-    <t>16-04-2022</t>
-  </si>
-  <si>
-    <t>17-04-2022</t>
-  </si>
-  <si>
-    <t>18-04-2022</t>
-  </si>
-  <si>
-    <t>19-04-2022</t>
-  </si>
-  <si>
-    <t>20-04-2022</t>
-  </si>
-  <si>
-    <t>21-04-2022</t>
-  </si>
-  <si>
-    <t>22-04-2022</t>
-  </si>
-  <si>
-    <t>23-04-2022</t>
-  </si>
-  <si>
-    <t>24-04-2022</t>
-  </si>
-  <si>
-    <t>25-04-2022</t>
-  </si>
-  <si>
-    <t>26-04-2022</t>
-  </si>
-  <si>
-    <t>27-04-2022</t>
-  </si>
-  <si>
-    <t>28-04-2022</t>
-  </si>
-  <si>
-    <t>29-04-2022</t>
-  </si>
-  <si>
-    <t>30-04-2022</t>
-  </si>
-  <si>
-    <t>01-05-2022</t>
-  </si>
-  <si>
-    <t>02-05-2022</t>
-  </si>
-  <si>
-    <t>03-05-2022</t>
-  </si>
-  <si>
-    <t>04-05-2022</t>
-  </si>
-  <si>
-    <t>05-05-2022</t>
-  </si>
-  <si>
-    <t>06-05-2022</t>
-  </si>
-  <si>
-    <t>07-05-2022</t>
-  </si>
-  <si>
-    <t>08-05-2022</t>
-  </si>
-  <si>
-    <t>09-05-2022</t>
-  </si>
-  <si>
-    <t>10-05-2022</t>
-  </si>
-  <si>
-    <t>11-05-2022</t>
-  </si>
-  <si>
-    <t>12-05-2022</t>
-  </si>
-  <si>
-    <t>13-05-2022</t>
-  </si>
-  <si>
-    <t>14-05-2022</t>
-  </si>
-  <si>
-    <t>15-05-2022</t>
-  </si>
-  <si>
-    <t>16-05-2022</t>
-  </si>
-  <si>
-    <t>17-05-2022</t>
-  </si>
-  <si>
-    <t>18-05-2022</t>
-  </si>
-  <si>
-    <t>19-05-2022</t>
-  </si>
-  <si>
-    <t>20-05-2022</t>
-  </si>
-  <si>
-    <t>21-05-2022</t>
-  </si>
-  <si>
-    <t>22-05-2022</t>
-  </si>
-  <si>
-    <t>23-05-2022</t>
-  </si>
-  <si>
-    <t>24-05-2022</t>
-  </si>
-  <si>
-    <t>25-05-2022</t>
-  </si>
-  <si>
-    <t>26-05-2022</t>
-  </si>
-  <si>
-    <t>27-05-2022</t>
-  </si>
-  <si>
-    <t>28-05-2022</t>
-  </si>
-  <si>
-    <t>29-05-2022</t>
-  </si>
-  <si>
-    <t>30-05-2022</t>
-  </si>
-  <si>
-    <t>31-05-2022</t>
-  </si>
-  <si>
-    <t>01-06-2022</t>
-  </si>
-  <si>
-    <t>02-06-2022</t>
-  </si>
-  <si>
-    <t>03-06-2022</t>
-  </si>
-  <si>
-    <t>04-06-2022</t>
-  </si>
-  <si>
-    <t>05-06-2022</t>
-  </si>
-  <si>
-    <t>06-06-2022</t>
-  </si>
-  <si>
-    <t>07-06-2022</t>
-  </si>
-  <si>
-    <t>08-06-2022</t>
-  </si>
-  <si>
-    <t>09-06-2022</t>
-  </si>
-  <si>
-    <t>10-06-2022</t>
-  </si>
-  <si>
-    <t>11-06-2022</t>
-  </si>
-  <si>
-    <t>12-06-2022</t>
-  </si>
-  <si>
-    <t>13-06-2022</t>
-  </si>
-  <si>
-    <t>14-06-2022</t>
-  </si>
-  <si>
-    <t>15-06-2022</t>
-  </si>
-  <si>
-    <t>16-06-2022</t>
-  </si>
-  <si>
-    <t>17-06-2022</t>
-  </si>
-  <si>
-    <t>18-06-2022</t>
-  </si>
-  <si>
-    <t>19-06-2022</t>
-  </si>
-  <si>
-    <t>20-06-2022</t>
-  </si>
-  <si>
-    <t>21-06-2022</t>
-  </si>
-  <si>
-    <t>22-06-2022</t>
-  </si>
-  <si>
-    <t>23-06-2022</t>
-  </si>
-  <si>
-    <t>24-06-2022</t>
-  </si>
-  <si>
-    <t>25-06-2022</t>
-  </si>
-  <si>
-    <t>26-06-2022</t>
-  </si>
-  <si>
-    <t>27-06-2022</t>
-  </si>
-  <si>
-    <t>28-06-2022</t>
-  </si>
-  <si>
-    <t>29-06-2022</t>
-  </si>
-  <si>
-    <t>30-06-2022</t>
-  </si>
-  <si>
-    <t>01-07-2022</t>
-  </si>
-  <si>
-    <t>02-07-2022</t>
-  </si>
-  <si>
-    <t>03-07-2022</t>
-  </si>
-  <si>
-    <t>04-07-2022</t>
-  </si>
-  <si>
-    <t>05-07-2022</t>
-  </si>
-  <si>
-    <t>06-07-2022</t>
-  </si>
-  <si>
-    <t>07-07-2022</t>
-  </si>
-  <si>
-    <t>08-07-2022</t>
-  </si>
-  <si>
-    <t>09-07-2022</t>
-  </si>
-  <si>
-    <t>10-07-2022</t>
-  </si>
-  <si>
-    <t>11-07-2022</t>
-  </si>
-  <si>
-    <t>12-07-2022</t>
-  </si>
-  <si>
-    <t>13-07-2022</t>
-  </si>
-  <si>
-    <t>14-07-2022</t>
-  </si>
-  <si>
-    <t>15-07-2022</t>
-  </si>
-  <si>
-    <t>16-07-2022</t>
-  </si>
-  <si>
-    <t>17-07-2022</t>
-  </si>
-  <si>
-    <t>18-07-2022</t>
-  </si>
-  <si>
-    <t>19-07-2022</t>
-  </si>
-  <si>
-    <t>20-07-2022</t>
-  </si>
-  <si>
-    <t>21-07-2022</t>
-  </si>
-  <si>
-    <t>22-07-2022</t>
-  </si>
-  <si>
-    <t>23-07-2022</t>
-  </si>
-  <si>
-    <t>24-07-2022</t>
-  </si>
-  <si>
-    <t>25-07-2022</t>
-  </si>
-  <si>
-    <t>26-07-2022</t>
-  </si>
-  <si>
-    <t>27-07-2022</t>
-  </si>
-  <si>
-    <t>28-07-2022</t>
-  </si>
-  <si>
-    <t>29-07-2022</t>
-  </si>
-  <si>
-    <t>30-07-2022</t>
-  </si>
-  <si>
-    <t>31-07-2022</t>
-  </si>
-  <si>
-    <t>01-08-2022</t>
-  </si>
-  <si>
-    <t>02-08-2022</t>
-  </si>
-  <si>
-    <t>03-08-2022</t>
-  </si>
-  <si>
-    <t>04-08-2022</t>
-  </si>
-  <si>
-    <t>05-08-2022</t>
-  </si>
-  <si>
-    <t>06-08-2022</t>
-  </si>
-  <si>
-    <t>07-08-2022</t>
-  </si>
-  <si>
-    <t>08-08-2022</t>
-  </si>
-  <si>
-    <t>09-08-2022</t>
-  </si>
-  <si>
-    <t>10-08-2022</t>
-  </si>
-  <si>
-    <t>11-08-2022</t>
-  </si>
-  <si>
-    <t>12-08-2022</t>
-  </si>
-  <si>
-    <t>13-08-2022</t>
-  </si>
-  <si>
-    <t>14-08-2022</t>
-  </si>
-  <si>
-    <t>15-08-2022</t>
   </si>
 </sst>
 </file>
@@ -1121,11 +1298,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="E1:K37"/>
+  <dimension ref="E1:K72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2:K37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K69" sqref="K69:K71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1138,713 +1315,1426 @@
     <col min="11" max="11" width="11.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="5:11" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="1" spans="5:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
     <row r="2" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F2">
-        <v>207284414.30568489</v>
+        <v>235601272.0875493</v>
       </c>
       <c r="H2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I2">
-        <v>22451185.118871938</v>
+        <v>19217857.628245469</v>
       </c>
       <c r="J2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K2">
-        <v>24096.19</v>
+        <v>19994.650000000001</v>
       </c>
     </row>
     <row r="3" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E3" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F3">
-        <v>180673577.33400911</v>
+        <v>218662618.53877121</v>
       </c>
       <c r="H3" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I3">
-        <v>19823143.47206977</v>
+        <v>17711313.57191243</v>
       </c>
       <c r="J3" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K3">
-        <v>23876.29</v>
+        <v>19789.87</v>
       </c>
     </row>
     <row r="4" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E4" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F4">
-        <v>202403376.03316841</v>
+        <v>224822128.92014509</v>
       </c>
       <c r="H4" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I4">
-        <v>21426691.807208609</v>
+        <v>17522524.676853798</v>
       </c>
       <c r="J4" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K4">
-        <v>23332.09</v>
+        <v>18806.7</v>
       </c>
     </row>
     <row r="5" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F5">
-        <v>250867150.7861115</v>
+        <v>195564454.60861939</v>
       </c>
       <c r="H5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I5">
-        <v>24646037.773745742</v>
+        <v>15580902.145009359</v>
       </c>
       <c r="J5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K5">
-        <v>23193.99</v>
+        <v>19280.080000000002</v>
       </c>
     </row>
     <row r="6" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E6" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F6">
-        <v>209995536.33219451</v>
+        <v>226362006.51548859</v>
       </c>
       <c r="H6" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I6">
-        <v>19906048.07872425</v>
+        <v>19406879.308704849</v>
       </c>
       <c r="J6" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K6">
-        <v>20843.22</v>
+        <v>19327.53</v>
       </c>
     </row>
     <row r="7" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E7" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F7">
-        <v>205767438.28523761</v>
+        <v>241760782.46892309</v>
       </c>
       <c r="H7" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I7">
-        <v>19658711.446938898</v>
+        <v>21254611.329074141</v>
       </c>
       <c r="J7" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K7">
-        <v>21150.33</v>
+        <v>21387.58</v>
       </c>
     </row>
     <row r="8" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F8">
-        <v>204358072.26958531</v>
+        <v>281797599.94785309</v>
       </c>
       <c r="H8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I8">
-        <v>20049502.85546378</v>
+        <v>25190836.064692538</v>
       </c>
       <c r="J8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K8">
-        <v>21520.51</v>
+        <v>21673.03</v>
       </c>
     </row>
     <row r="9" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E9" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F9">
-        <v>242410954.69219759</v>
+        <v>235601272.0875493</v>
       </c>
       <c r="H9" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="I9">
-        <v>23241671.09599258</v>
+        <v>21457966.189803269</v>
       </c>
       <c r="J9" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="K9">
-        <v>21402.93</v>
+        <v>21794.52</v>
       </c>
     </row>
     <row r="10" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E10" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F10">
-        <v>205767438.28523761</v>
+        <v>211972242.07355151</v>
       </c>
       <c r="H10" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I10">
-        <v>19789812.784745932</v>
+        <v>18880378.135990221</v>
       </c>
       <c r="J10" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="K10">
-        <v>21516.02</v>
+        <v>22392.71</v>
       </c>
     </row>
     <row r="11" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F11">
-        <v>224089196.48871759</v>
+        <v>202308899.97494459</v>
       </c>
       <c r="H11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="I11">
-        <v>21711435.861922301</v>
+        <v>16390122.367911549</v>
       </c>
       <c r="J11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="K11">
-        <v>21377.51</v>
+        <v>20172.560000000001</v>
       </c>
     </row>
     <row r="12" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E12" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F12">
-        <v>248048418.754807</v>
+        <v>234168569.26233751</v>
       </c>
       <c r="H12" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I12">
-        <v>23607458.782695789</v>
+        <v>18722547.16017402</v>
       </c>
       <c r="J12" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="K12">
-        <v>21597.93</v>
+        <v>20219.55</v>
       </c>
     </row>
     <row r="13" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E13" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F13">
-        <v>204358072.26958531</v>
+        <v>203901883.43931431</v>
       </c>
       <c r="H13" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I13">
-        <v>18417353.539063279</v>
+        <v>16155813.96987422</v>
       </c>
       <c r="J13" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="K13">
-        <v>20233.32</v>
+        <v>19694.689999999999</v>
       </c>
     </row>
     <row r="14" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E14" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F14">
-        <v>226907928.5200223</v>
+        <v>270807188.94283921</v>
       </c>
       <c r="H14" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I14">
-        <v>20531551.535323691</v>
+        <v>22046267.35194397</v>
       </c>
       <c r="J14" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="K14">
-        <v>20035.59</v>
+        <v>19787.61</v>
       </c>
     </row>
     <row r="15" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E15" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F15">
-        <v>221270464.45741299</v>
+        <v>245319453.512925</v>
       </c>
       <c r="H15" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I15">
-        <v>19815545.485037681</v>
+        <v>19614731.425575141</v>
       </c>
       <c r="J15" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="K15">
-        <v>19550.07</v>
+        <v>20122.71</v>
       </c>
     </row>
     <row r="16" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E16" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F16">
-        <v>228317294.5356746</v>
+        <v>207087850.36805359</v>
       </c>
       <c r="H16" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I16">
-        <v>20898311.567606829</v>
+        <v>15916507.70878895</v>
       </c>
       <c r="J16" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="K16">
-        <v>20290.41</v>
+        <v>19415.86</v>
       </c>
     </row>
     <row r="17" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E17" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F17">
-        <v>219862688.8918815</v>
+        <v>242133486.58418569</v>
       </c>
       <c r="H17" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I17">
-        <v>18973801.67552897</v>
+        <v>18547287.27541817</v>
       </c>
       <c r="J17" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="K17">
-        <v>19793.02</v>
+        <v>19542.2</v>
       </c>
     </row>
     <row r="18" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E18" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F18">
-        <v>212503108.15739739</v>
+        <v>224610668.47611961</v>
       </c>
       <c r="H18" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I18">
-        <v>17519322.333246779</v>
+        <v>17044371.760123409</v>
       </c>
       <c r="J18" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="K18">
-        <v>20047.68</v>
+        <v>18879.96</v>
       </c>
     </row>
     <row r="19" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E19" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F19">
-        <v>198644209.79930621</v>
+        <v>203901883.43931431</v>
       </c>
       <c r="H19" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I19">
-        <v>16573004.97125154</v>
+        <v>15405709.40626408</v>
       </c>
       <c r="J19" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K19">
-        <v>20130.52</v>
+        <v>18507.36</v>
       </c>
     </row>
     <row r="20" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E20" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F20">
-        <v>226362006.51548859</v>
+        <v>215052767.6899018</v>
       </c>
       <c r="H20" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I20">
-        <v>18503841.81010827</v>
+        <v>16388196.04995214</v>
       </c>
       <c r="J20" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="K20">
-        <v>19952.91</v>
+        <v>19408.63</v>
       </c>
     </row>
     <row r="21" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E21" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F21">
-        <v>258699436.01770121</v>
+        <v>232575585.79796779</v>
       </c>
       <c r="H21" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I21">
-        <v>21001414.013361339</v>
+        <v>17641158.579690129</v>
       </c>
       <c r="J21" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K21">
-        <v>19834.939999999999</v>
+        <v>19280.580000000002</v>
       </c>
     </row>
     <row r="22" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E22" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F22">
-        <v>235601272.0875493</v>
+        <v>234168569.26233751</v>
       </c>
       <c r="H22" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I22">
-        <v>19217857.628245469</v>
+        <v>18123081.632324349</v>
       </c>
       <c r="J22" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="K22">
-        <v>19994.650000000001</v>
+        <v>18931.79</v>
       </c>
     </row>
     <row r="23" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E23" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F23">
-        <v>218662618.53877121</v>
+        <v>238947519.65544641</v>
       </c>
       <c r="H23" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I23">
-        <v>17711313.57191243</v>
+        <v>18586164.079101399</v>
       </c>
       <c r="J23" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="K23">
-        <v>19789.87</v>
+        <v>18807.71</v>
       </c>
     </row>
     <row r="24" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E24" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F24">
-        <v>224822128.92014509</v>
+        <v>205494866.9036839</v>
       </c>
       <c r="H24" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I24">
-        <v>17522524.676853798</v>
+        <v>16499416.475864621</v>
       </c>
       <c r="J24" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="K24">
-        <v>18806.7</v>
+        <v>19227.259999999998</v>
       </c>
     </row>
     <row r="25" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E25" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F25">
-        <v>195564454.60861939</v>
+        <v>234283743.87934899</v>
       </c>
       <c r="H25" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I25">
-        <v>15580902.145009359</v>
+        <v>18194817.839215629</v>
       </c>
       <c r="J25" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="K25">
-        <v>19280.080000000002</v>
+        <v>19104.89</v>
       </c>
     </row>
     <row r="26" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E26" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F26">
-        <v>226362006.51548859</v>
+        <v>222928606.67506379</v>
       </c>
       <c r="H26" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I26">
-        <v>19406879.308704849</v>
+        <v>17625877.854631249</v>
       </c>
       <c r="J26" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="K26">
-        <v>19327.53</v>
+        <v>19530.71</v>
       </c>
     </row>
     <row r="27" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E27" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F27">
-        <v>241760782.46892309</v>
+        <v>263461080.6159845</v>
       </c>
       <c r="H27" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I27">
-        <v>21254611.329074141</v>
+        <v>20961626.892611511</v>
       </c>
       <c r="J27" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K27">
-        <v>21387.58</v>
+        <v>19598.86</v>
       </c>
     </row>
     <row r="28" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E28" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F28">
-        <v>281797599.94785309</v>
+        <v>282168376.28102487</v>
       </c>
       <c r="H28" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I28">
-        <v>25190836.064692538</v>
+        <v>22356100.35648175</v>
       </c>
       <c r="J28" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K28">
-        <v>21673.03</v>
+        <v>19427.2</v>
       </c>
     </row>
     <row r="29" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E29" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F29">
-        <v>235601272.0875493</v>
+        <v>244753784.95094419</v>
       </c>
       <c r="H29" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I29">
-        <v>21457966.189803269</v>
+        <v>19049496.730837949</v>
       </c>
       <c r="J29" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="K29">
-        <v>21794.52</v>
+        <v>19314.689999999999</v>
       </c>
     </row>
     <row r="30" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E30" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F30">
-        <v>211972242.07355151</v>
+        <v>240076961.03468409</v>
       </c>
       <c r="H30" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="I30">
-        <v>18880378.135990221</v>
+        <v>18822692.573004819</v>
       </c>
       <c r="J30" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="K30">
-        <v>22392.71</v>
+        <v>19049.72</v>
       </c>
     </row>
     <row r="31" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E31" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F31">
-        <v>202308899.97494459</v>
+        <v>254107432.78346431</v>
       </c>
       <c r="H31" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I31">
-        <v>16390122.367911549</v>
+        <v>20497223.574671332</v>
       </c>
       <c r="J31" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K31">
-        <v>20172.560000000001</v>
+        <v>19632.61</v>
       </c>
     </row>
     <row r="32" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E32" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F32">
-        <v>234168569.26233751</v>
+        <v>272814728.44850469</v>
       </c>
       <c r="H32" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="I32">
-        <v>18722547.16017402</v>
+        <v>22220525.211607698</v>
       </c>
       <c r="J32" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K32">
-        <v>20219.55</v>
+        <v>20342.25</v>
       </c>
     </row>
     <row r="33" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E33" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F33">
-        <v>203901883.43931431</v>
+        <v>247871667.56178421</v>
       </c>
       <c r="H33" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I33">
-        <v>16155813.96987422</v>
+        <v>20238932.999599461</v>
       </c>
       <c r="J33" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="K33">
-        <v>19694.689999999999</v>
+        <v>20167.79</v>
       </c>
     </row>
     <row r="34" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E34" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F34">
-        <v>270807188.94283921</v>
+        <v>266578963.22682461</v>
       </c>
       <c r="H34" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I34">
-        <v>22046267.35194397</v>
+        <v>21329735.829238571</v>
       </c>
       <c r="J34" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="K34">
-        <v>19787.61</v>
+        <v>19956.490000000002</v>
       </c>
     </row>
     <row r="35" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E35" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F35">
-        <v>245319453.512925</v>
+        <v>272814728.44850469</v>
       </c>
       <c r="H35" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="I35">
-        <v>19614731.425575141</v>
+        <v>21693311.538908791</v>
       </c>
       <c r="J35" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="K35">
-        <v>20122.71</v>
+        <v>19544.82</v>
       </c>
     </row>
     <row r="36" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E36" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F36">
-        <v>207087850.36805359</v>
+        <v>246312726.2563642</v>
       </c>
       <c r="H36" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I36">
-        <v>15916507.70878895</v>
+        <v>19801812.92339956</v>
       </c>
       <c r="J36" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="K36">
-        <v>19415.86</v>
+        <v>19417.73</v>
       </c>
     </row>
     <row r="37" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E37" t="s">
+        <v>39</v>
+      </c>
+      <c r="F37">
+        <v>281762541.48688233</v>
+      </c>
+      <c r="H37" t="s">
+        <v>39</v>
+      </c>
+      <c r="I37">
+        <v>20456350.29360484</v>
+      </c>
       <c r="J37" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="K37">
-        <v>19542.2</v>
+        <v>19441.88</v>
+      </c>
+    </row>
+    <row r="38" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E38" t="s">
+        <v>40</v>
+      </c>
+      <c r="F38">
+        <v>277924882.20287919</v>
+      </c>
+      <c r="H38" t="s">
+        <v>40</v>
+      </c>
+      <c r="I38">
+        <v>19592269.926100031</v>
+      </c>
+      <c r="J38" t="s">
+        <v>40</v>
+      </c>
+      <c r="K38">
+        <v>19132.52</v>
+      </c>
+    </row>
+    <row r="39" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E39" t="s">
+        <v>41</v>
+      </c>
+      <c r="F39">
+        <v>242520438.61015579</v>
+      </c>
+      <c r="H39" t="s">
+        <v>41</v>
+      </c>
+      <c r="I39">
+        <v>16543247.30628825</v>
+      </c>
+      <c r="J39" t="s">
+        <v>41</v>
+      </c>
+      <c r="K39">
+        <v>19049.64</v>
+      </c>
+    </row>
+    <row r="40" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E40" t="s">
+        <v>42</v>
+      </c>
+      <c r="F40">
+        <v>253141771.68797281</v>
+      </c>
+      <c r="H40" t="s">
+        <v>42</v>
+      </c>
+      <c r="I40">
+        <v>17339850.420349471</v>
+      </c>
+      <c r="J40" t="s">
+        <v>42</v>
+      </c>
+      <c r="K40">
+        <v>19156.21</v>
+      </c>
+    </row>
+    <row r="41" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E41" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41">
+        <v>276154660.02324301</v>
+      </c>
+      <c r="H41" t="s">
+        <v>43</v>
+      </c>
+      <c r="I41">
+        <v>19349674.89580575</v>
+      </c>
+      <c r="J41" t="s">
+        <v>43</v>
+      </c>
+      <c r="K41">
+        <v>19383.330000000002</v>
+      </c>
+    </row>
+    <row r="42" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42">
+        <v>269073771.30469841</v>
+      </c>
+      <c r="H42" t="s">
+        <v>44</v>
+      </c>
+      <c r="I42">
+        <v>18603429.73147402</v>
+      </c>
+      <c r="J42" t="s">
+        <v>44</v>
+      </c>
+      <c r="K42">
+        <v>19184.71</v>
+      </c>
+    </row>
+    <row r="43" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E43" t="s">
+        <v>45</v>
+      </c>
+      <c r="F43">
+        <v>254911993.86760899</v>
+      </c>
+      <c r="H43" t="s">
+        <v>45</v>
+      </c>
+      <c r="I43">
+        <v>17640377.30159824</v>
+      </c>
+      <c r="J43" t="s">
+        <v>45</v>
+      </c>
+      <c r="K43">
+        <v>19063.099999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E44" t="s">
+        <v>46</v>
+      </c>
+      <c r="F44">
+        <v>265533326.94542599</v>
+      </c>
+      <c r="H44" t="s">
+        <v>46</v>
+      </c>
+      <c r="I44">
+        <v>18438405.724884208</v>
+      </c>
+      <c r="J44" t="s">
+        <v>46</v>
+      </c>
+      <c r="K44">
+        <v>19265.53</v>
+      </c>
+    </row>
+    <row r="45" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E45" t="s">
+        <v>47</v>
+      </c>
+      <c r="F45">
+        <v>251371549.5083366</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45">
+        <v>17605946.97357972</v>
+      </c>
+      <c r="J45" t="s">
+        <v>47</v>
+      </c>
+      <c r="K45">
+        <v>19548.97</v>
+      </c>
+    </row>
+    <row r="46" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E46" t="s">
+        <v>48</v>
+      </c>
+      <c r="F46">
+        <v>267303549.1250622</v>
+      </c>
+      <c r="H46" t="s">
+        <v>48</v>
+      </c>
+      <c r="I46">
+        <v>18709672.394991811</v>
+      </c>
+      <c r="J46" t="s">
+        <v>48</v>
+      </c>
+      <c r="K46">
+        <v>19330.740000000002</v>
+      </c>
+    </row>
+    <row r="47" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E47" t="s">
+        <v>49</v>
+      </c>
+      <c r="F47">
+        <v>256682216.04724509</v>
+      </c>
+      <c r="H47" t="s">
+        <v>49</v>
+      </c>
+      <c r="I47">
+        <v>17832142.51115521</v>
+      </c>
+      <c r="J47" t="s">
+        <v>49</v>
+      </c>
+      <c r="K47">
+        <v>19125.650000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E48" t="s">
+        <v>50</v>
+      </c>
+      <c r="F48">
+        <v>276154660.02324301</v>
+      </c>
+      <c r="H48" t="s">
+        <v>50</v>
+      </c>
+      <c r="I48">
+        <v>18823653.62509549</v>
+      </c>
+      <c r="J48" t="s">
+        <v>50</v>
+      </c>
+      <c r="K48">
+        <v>19046.830000000002</v>
+      </c>
+    </row>
+    <row r="49" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E49" t="s">
+        <v>51</v>
+      </c>
+      <c r="F49">
+        <v>240750216.43051949</v>
+      </c>
+      <c r="H49" t="s">
+        <v>51</v>
+      </c>
+      <c r="I49">
+        <v>16486650.382671939</v>
+      </c>
+      <c r="J49" t="s">
+        <v>51</v>
+      </c>
+      <c r="K49">
+        <v>19171.34</v>
+      </c>
+    </row>
+    <row r="50" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E50" t="s">
+        <v>52</v>
+      </c>
+      <c r="F50">
+        <v>274506216.9071191</v>
+      </c>
+      <c r="H50" t="s">
+        <v>52</v>
+      </c>
+      <c r="I50">
+        <v>18817002.899194229</v>
+      </c>
+      <c r="J50" t="s">
+        <v>52</v>
+      </c>
+      <c r="K50">
+        <v>19205.45</v>
+      </c>
+    </row>
+    <row r="51" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E51" t="s">
+        <v>53</v>
+      </c>
+      <c r="F51">
+        <v>249031192.74934921</v>
+      </c>
+      <c r="H51" t="s">
+        <v>53</v>
+      </c>
+      <c r="I51">
+        <v>16704131.754237531</v>
+      </c>
+      <c r="J51" t="s">
+        <v>53</v>
+      </c>
+      <c r="K51">
+        <v>19565.91</v>
+      </c>
+    </row>
+    <row r="52" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E52" t="s">
+        <v>54</v>
+      </c>
+      <c r="F52">
+        <v>223395628.78985739</v>
+      </c>
+      <c r="H52" t="s">
+        <v>54</v>
+      </c>
+      <c r="I52">
+        <v>15262936.71303734</v>
+      </c>
+      <c r="J52" t="s">
+        <v>54</v>
+      </c>
+      <c r="K52">
+        <v>19338.900000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E53" t="s">
+        <v>55</v>
+      </c>
+      <c r="F53">
+        <v>283822315.26580238</v>
+      </c>
+      <c r="H53" t="s">
+        <v>55</v>
+      </c>
+      <c r="I53">
+        <v>20391787.49715678</v>
+      </c>
+      <c r="J53" t="s">
+        <v>55</v>
+      </c>
+      <c r="K53">
+        <v>20101.27</v>
+      </c>
+    </row>
+    <row r="54" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E54" t="s">
+        <v>56</v>
+      </c>
+      <c r="F54">
+        <v>247200081.03795689</v>
+      </c>
+      <c r="H54" t="s">
+        <v>56</v>
+      </c>
+      <c r="I54">
+        <v>17781054.47213785</v>
+      </c>
+      <c r="J54" t="s">
+        <v>56</v>
+      </c>
+      <c r="K54">
+        <v>20772.36</v>
+      </c>
+    </row>
+    <row r="55" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E55" t="s">
+        <v>57</v>
+      </c>
+      <c r="F55">
+        <v>291146762.11137152</v>
+      </c>
+      <c r="H55" t="s">
+        <v>57</v>
+      </c>
+      <c r="I55">
+        <v>20657842.562491421</v>
+      </c>
+      <c r="J55" t="s">
+        <v>57</v>
+      </c>
+      <c r="K55">
+        <v>20288.52</v>
+      </c>
+    </row>
+    <row r="56" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E56" t="s">
+        <v>58</v>
+      </c>
+      <c r="F56">
+        <v>261848974.72909519</v>
+      </c>
+      <c r="H56" t="s">
+        <v>58</v>
+      </c>
+      <c r="I56">
+        <v>18889102.554937229</v>
+      </c>
+      <c r="J56" t="s">
+        <v>58</v>
+      </c>
+      <c r="K56">
+        <v>20601.63</v>
+      </c>
+    </row>
+    <row r="57" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E57" t="s">
+        <v>59</v>
+      </c>
+      <c r="F57">
+        <v>247200081.03795689</v>
+      </c>
+      <c r="H57" t="s">
+        <v>59</v>
+      </c>
+      <c r="I57">
+        <v>17765496.375039838</v>
+      </c>
+      <c r="J57" t="s">
+        <v>59</v>
+      </c>
+      <c r="K57">
+        <v>20816.16</v>
+      </c>
+    </row>
+    <row r="58" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E58" t="s">
+        <v>60</v>
+      </c>
+      <c r="F58">
+        <v>316782326.07086331</v>
+      </c>
+      <c r="H58" t="s">
+        <v>60</v>
+      </c>
+      <c r="I58">
+        <v>22491183.83494645</v>
+      </c>
+      <c r="J58" t="s">
+        <v>60</v>
+      </c>
+      <c r="K58">
+        <v>20628.5</v>
+      </c>
+    </row>
+    <row r="59" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E59" t="s">
+        <v>61</v>
+      </c>
+      <c r="F59">
+        <v>263680086.44048741</v>
+      </c>
+      <c r="H59" t="s">
+        <v>61</v>
+      </c>
+      <c r="I59">
+        <v>19035680.240228109</v>
+      </c>
+      <c r="J59" t="s">
+        <v>61</v>
+      </c>
+      <c r="K59">
+        <v>20499.29</v>
+      </c>
+    </row>
+    <row r="60" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E60" t="s">
+        <v>62</v>
+      </c>
+      <c r="F60">
+        <v>223395628.78985739</v>
+      </c>
+      <c r="H60" t="s">
+        <v>62</v>
+      </c>
+      <c r="I60">
+        <v>15923465.09599713</v>
+      </c>
+      <c r="J60" t="s">
+        <v>62</v>
+      </c>
+      <c r="K60">
+        <v>20486.259999999998</v>
+      </c>
+    </row>
+    <row r="61" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E61" t="s">
+        <v>63</v>
+      </c>
+      <c r="F61">
+        <v>300302320.66833287</v>
+      </c>
+      <c r="H61" t="s">
+        <v>63</v>
+      </c>
+      <c r="I61">
+        <v>21427249.23394772</v>
+      </c>
+      <c r="J61" t="s">
+        <v>63</v>
+      </c>
+      <c r="K61">
+        <v>20153.990000000002</v>
+      </c>
+    </row>
+    <row r="62" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E62" t="s">
+        <v>64</v>
+      </c>
+      <c r="F62">
+        <v>236213410.76960331</v>
+      </c>
+      <c r="H62" t="s">
+        <v>64</v>
+      </c>
+      <c r="I62">
+        <v>17095479.289112121</v>
+      </c>
+      <c r="J62" t="s">
+        <v>64</v>
+      </c>
+      <c r="K62">
+        <v>20208.16</v>
+      </c>
+    </row>
+    <row r="63" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E63" t="s">
+        <v>65</v>
+      </c>
+      <c r="F63">
+        <v>276497868.42023331</v>
+      </c>
+      <c r="H63" t="s">
+        <v>65</v>
+      </c>
+      <c r="I63">
+        <v>20477935.245340101</v>
+      </c>
+      <c r="J63" t="s">
+        <v>65</v>
+      </c>
+      <c r="K63">
+        <v>21152.93</v>
+      </c>
+    </row>
+    <row r="64" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E64" t="s">
+        <v>66</v>
+      </c>
+      <c r="F64">
+        <v>250862304.46074149</v>
+      </c>
+      <c r="H64" t="s">
+        <v>66</v>
+      </c>
+      <c r="I64">
+        <v>18479805.99848374</v>
+      </c>
+      <c r="J64" t="s">
+        <v>66</v>
+      </c>
+      <c r="K64">
+        <v>21292.67</v>
+      </c>
+    </row>
+    <row r="65" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E65" t="s">
+        <v>67</v>
+      </c>
+      <c r="F65">
+        <v>263186945.48747671</v>
+      </c>
+      <c r="H65" t="s">
+        <v>67</v>
+      </c>
+      <c r="I65">
+        <v>19052783.197264329</v>
+      </c>
+      <c r="J65" t="s">
+        <v>67</v>
+      </c>
+      <c r="K65">
+        <v>20920.330000000002</v>
+      </c>
+    </row>
+    <row r="66" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E66" t="s">
+        <v>68</v>
+      </c>
+      <c r="F66">
+        <v>297875786.9173795</v>
+      </c>
+      <c r="H66" t="s">
+        <v>68</v>
+      </c>
+      <c r="I66">
+        <v>20378818.58383802</v>
+      </c>
+      <c r="J66" t="s">
+        <v>68</v>
+      </c>
+      <c r="K66">
+        <v>20598.439999999999</v>
+      </c>
+    </row>
+    <row r="67" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E67" t="s">
+        <v>69</v>
+      </c>
+      <c r="F67">
+        <v>272291363.50116289</v>
+      </c>
+      <c r="H67" t="s">
+        <v>69</v>
+      </c>
+      <c r="I67">
+        <v>16756916.90489742</v>
+      </c>
+      <c r="J67" t="s">
+        <v>69</v>
+      </c>
+      <c r="K67">
+        <v>18540.11</v>
+      </c>
+    </row>
+    <row r="68" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E68" t="s">
+        <v>70</v>
+      </c>
+      <c r="F68">
+        <v>268636445.87027478</v>
+      </c>
+      <c r="H68" t="s">
+        <v>70</v>
+      </c>
+      <c r="I68">
+        <v>15963715.774192439</v>
+      </c>
+      <c r="J68" t="s">
+        <v>70</v>
+      </c>
+      <c r="K68">
+        <v>15856.95</v>
+      </c>
+    </row>
+    <row r="69" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E69" t="s">
+        <v>71</v>
+      </c>
+      <c r="F69">
+        <v>244879481.26950219</v>
+      </c>
+      <c r="H69" t="s">
+        <v>71</v>
+      </c>
+      <c r="I69">
+        <v>14900952.885684291</v>
+      </c>
+      <c r="J69" t="s">
+        <v>71</v>
+      </c>
+      <c r="K69">
+        <v>17550.23</v>
+      </c>
+    </row>
+    <row r="70" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E70" t="s">
+        <v>72</v>
+      </c>
+      <c r="F70">
+        <v>305185622.17915571</v>
+      </c>
+      <c r="H70" t="s">
+        <v>72</v>
+      </c>
+      <c r="I70">
+        <v>17874099.036632769</v>
+      </c>
+      <c r="J70" t="s">
+        <v>72</v>
+      </c>
+      <c r="K70">
+        <v>16990.259999999998</v>
+      </c>
+    </row>
+    <row r="71" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E71" t="s">
+        <v>73</v>
+      </c>
+      <c r="F71">
+        <v>235742187.1922819</v>
+      </c>
+      <c r="H71" t="s">
+        <v>73</v>
+      </c>
+      <c r="I71">
+        <v>13715309.63689097</v>
+      </c>
+      <c r="J71" t="s">
+        <v>73</v>
+      </c>
+      <c r="K71">
+        <v>16776.400000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="J72" t="s">
+        <v>74</v>
+      </c>
+      <c r="K72">
+        <v>16310.3</v>
       </c>
     </row>
   </sheetData>
@@ -1855,10 +2745,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="E2:F253"/>
+  <dimension ref="E2:F308"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A232" workbookViewId="0">
-      <selection activeCell="I237" sqref="I237"/>
+    <sheetView topLeftCell="A269" workbookViewId="0">
+      <selection activeCell="F254" sqref="F254:F303"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1868,7 +2758,7 @@
   <sheetData>
     <row r="2" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E2" s="2" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="F2">
         <v>7.0234846800000001</v>
@@ -1876,7 +2766,7 @@
     </row>
     <row r="3" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E3" s="2" t="s">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="F3">
         <v>8.4</v>
@@ -1884,7 +2774,7 @@
     </row>
     <row r="4" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E4" s="2" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="F4">
         <v>8</v>
@@ -1892,7 +2782,7 @@
     </row>
     <row r="5" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E5" s="2" t="s">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="F5">
         <v>8</v>
@@ -1900,7 +2790,7 @@
     </row>
     <row r="6" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E6" s="2" t="s">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="F6">
         <v>8</v>
@@ -1908,7 +2798,7 @@
     </row>
     <row r="7" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E7" s="2" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="F7">
         <v>7.5</v>
@@ -1916,7 +2806,7 @@
     </row>
     <row r="8" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E8" s="2" t="s">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="F8">
         <v>7.75</v>
@@ -1924,7 +2814,7 @@
     </row>
     <row r="9" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E9" s="2" t="s">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="F9">
         <v>7.5</v>
@@ -1932,7 +2822,7 @@
     </row>
     <row r="10" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E10" s="2" t="s">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="F10">
         <v>7.7777700000000003</v>
@@ -1940,7 +2830,7 @@
     </row>
     <row r="11" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E11" s="2" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="F11">
         <v>7.7777700000000003</v>
@@ -1948,7 +2838,7 @@
     </row>
     <row r="12" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E12" s="2" t="s">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="F12">
         <v>7.7777700000000003</v>
@@ -1956,7 +2846,7 @@
     </row>
     <row r="13" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E13" s="2" t="s">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="F13">
         <v>7.5</v>
@@ -1964,7 +2854,7 @@
     </row>
     <row r="14" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E14" s="2" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="F14">
         <v>7.5</v>
@@ -1972,7 +2862,7 @@
     </row>
     <row r="15" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E15" s="2" t="s">
-        <v>49</v>
+        <v>88</v>
       </c>
       <c r="F15">
         <v>7.5</v>
@@ -1980,7 +2870,7 @@
     </row>
     <row r="16" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E16" s="2" t="s">
-        <v>50</v>
+        <v>89</v>
       </c>
       <c r="F16">
         <v>7.5</v>
@@ -1988,7 +2878,7 @@
     </row>
     <row r="17" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E17" s="2" t="s">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="F17">
         <v>7.5</v>
@@ -1996,7 +2886,7 @@
     </row>
     <row r="18" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E18" s="2" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="F18">
         <v>7.5</v>
@@ -2004,7 +2894,7 @@
     </row>
     <row r="19" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E19" s="2" t="s">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="F19">
         <v>7.5</v>
@@ -2012,7 +2902,7 @@
     </row>
     <row r="20" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E20" s="2" t="s">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="F20">
         <v>7.5</v>
@@ -2020,7 +2910,7 @@
     </row>
     <row r="21" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E21" s="2" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="F21">
         <v>7.5</v>
@@ -2028,7 +2918,7 @@
     </row>
     <row r="22" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E22" s="2" t="s">
-        <v>56</v>
+        <v>95</v>
       </c>
       <c r="F22">
         <v>7.5</v>
@@ -2036,7 +2926,7 @@
     </row>
     <row r="23" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E23" s="2" t="s">
-        <v>57</v>
+        <v>96</v>
       </c>
       <c r="F23">
         <v>7.5</v>
@@ -2044,7 +2934,7 @@
     </row>
     <row r="24" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E24" s="2" t="s">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="F24">
         <v>7.5</v>
@@ -2052,7 +2942,7 @@
     </row>
     <row r="25" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E25" s="2" t="s">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="F25">
         <v>7.5</v>
@@ -2060,7 +2950,7 @@
     </row>
     <row r="26" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E26" s="2" t="s">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="F26">
         <v>7.5</v>
@@ -2068,7 +2958,7 @@
     </row>
     <row r="27" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E27" s="2" t="s">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="F27">
         <v>7.5</v>
@@ -2076,7 +2966,7 @@
     </row>
     <row r="28" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E28" s="2" t="s">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="F28">
         <v>7.5</v>
@@ -2084,7 +2974,7 @@
     </row>
     <row r="29" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E29" s="2" t="s">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="F29">
         <v>7.5</v>
@@ -2092,7 +2982,7 @@
     </row>
     <row r="30" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E30" s="2" t="s">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="F30">
         <v>7.5</v>
@@ -2100,7 +2990,7 @@
     </row>
     <row r="31" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E31" s="2" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="F31">
         <v>7.5</v>
@@ -2108,7 +2998,7 @@
     </row>
     <row r="32" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E32" s="2" t="s">
-        <v>66</v>
+        <v>105</v>
       </c>
       <c r="F32">
         <v>7.5</v>
@@ -2116,7 +3006,7 @@
     </row>
     <row r="33" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E33" s="2" t="s">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="F33">
         <v>7.5</v>
@@ -2124,7 +3014,7 @@
     </row>
     <row r="34" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E34" s="2" t="s">
-        <v>68</v>
+        <v>107</v>
       </c>
       <c r="F34">
         <v>7.5</v>
@@ -2132,7 +3022,7 @@
     </row>
     <row r="35" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E35" s="2" t="s">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="F35">
         <v>7.5</v>
@@ -2140,7 +3030,7 @@
     </row>
     <row r="36" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E36" s="2" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="F36">
         <v>7.5</v>
@@ -2148,7 +3038,7 @@
     </row>
     <row r="37" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E37" s="2" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="F37">
         <v>6.9950000000000001</v>
@@ -2156,7 +3046,7 @@
     </row>
     <row r="38" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E38" s="2" t="s">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="F38">
         <v>7.15</v>
@@ -2164,7 +3054,7 @@
     </row>
     <row r="39" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E39" s="2" t="s">
-        <v>73</v>
+        <v>112</v>
       </c>
       <c r="F39">
         <v>7.15</v>
@@ -2172,7 +3062,7 @@
     </row>
     <row r="40" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E40" s="2" t="s">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="F40">
         <v>7.15</v>
@@ -2180,7 +3070,7 @@
     </row>
     <row r="41" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E41" s="2" t="s">
-        <v>75</v>
+        <v>114</v>
       </c>
       <c r="F41">
         <v>7.15</v>
@@ -2188,7 +3078,7 @@
     </row>
     <row r="42" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E42" s="2" t="s">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="F42">
         <v>7.15</v>
@@ -2196,7 +3086,7 @@
     </row>
     <row r="43" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E43" s="2" t="s">
-        <v>77</v>
+        <v>116</v>
       </c>
       <c r="F43">
         <v>7.15</v>
@@ -2204,7 +3094,7 @@
     </row>
     <row r="44" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E44" s="2" t="s">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="F44">
         <v>7.45</v>
@@ -2212,7 +3102,7 @@
     </row>
     <row r="45" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E45" s="2" t="s">
-        <v>79</v>
+        <v>118</v>
       </c>
       <c r="F45">
         <v>7.45</v>
@@ -2220,7 +3110,7 @@
     </row>
     <row r="46" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E46" s="2" t="s">
-        <v>80</v>
+        <v>119</v>
       </c>
       <c r="F46">
         <v>7.45</v>
@@ -2228,7 +3118,7 @@
     </row>
     <row r="47" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E47" s="2" t="s">
-        <v>81</v>
+        <v>120</v>
       </c>
       <c r="F47">
         <v>7.45</v>
@@ -2236,7 +3126,7 @@
     </row>
     <row r="48" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E48" s="2" t="s">
-        <v>82</v>
+        <v>121</v>
       </c>
       <c r="F48">
         <v>7.45</v>
@@ -2244,7 +3134,7 @@
     </row>
     <row r="49" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E49" s="2" t="s">
-        <v>83</v>
+        <v>122</v>
       </c>
       <c r="F49">
         <v>7.45</v>
@@ -2252,7 +3142,7 @@
     </row>
     <row r="50" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E50" s="2" t="s">
-        <v>84</v>
+        <v>123</v>
       </c>
       <c r="F50">
         <v>7.45</v>
@@ -2260,7 +3150,7 @@
     </row>
     <row r="51" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E51" s="2" t="s">
-        <v>85</v>
+        <v>124</v>
       </c>
       <c r="F51">
         <v>7.45</v>
@@ -2268,7 +3158,7 @@
     </row>
     <row r="52" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E52" s="2" t="s">
-        <v>86</v>
+        <v>125</v>
       </c>
       <c r="F52">
         <v>6.9950000000000001</v>
@@ -2276,7 +3166,7 @@
     </row>
     <row r="53" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E53" s="2" t="s">
-        <v>87</v>
+        <v>126</v>
       </c>
       <c r="F53">
         <v>6.9950000000000001</v>
@@ -2284,7 +3174,7 @@
     </row>
     <row r="54" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E54" s="2" t="s">
-        <v>88</v>
+        <v>127</v>
       </c>
       <c r="F54">
         <v>6.9950000000000001</v>
@@ -2292,7 +3182,7 @@
     </row>
     <row r="55" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E55" s="2" t="s">
-        <v>89</v>
+        <v>128</v>
       </c>
       <c r="F55">
         <v>6.9950000000000001</v>
@@ -2300,7 +3190,7 @@
     </row>
     <row r="56" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E56" s="2" t="s">
-        <v>90</v>
+        <v>129</v>
       </c>
       <c r="F56">
         <v>7.0994999999999999</v>
@@ -2308,7 +3198,7 @@
     </row>
     <row r="57" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E57" s="2" t="s">
-        <v>91</v>
+        <v>130</v>
       </c>
       <c r="F57">
         <v>7.0994999999999999</v>
@@ -2316,7 +3206,7 @@
     </row>
     <row r="58" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E58" s="2" t="s">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="F58">
         <v>7.0994999999999999</v>
@@ -2324,7 +3214,7 @@
     </row>
     <row r="59" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E59" s="2" t="s">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="F59">
         <v>7.0994999999999999</v>
@@ -2332,7 +3222,7 @@
     </row>
     <row r="60" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E60" s="2" t="s">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="F60">
         <v>7.0994999999999999</v>
@@ -2340,7 +3230,7 @@
     </row>
     <row r="61" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E61" s="2" t="s">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="F61">
         <v>7.0994999999999999</v>
@@ -2348,7 +3238,7 @@
     </row>
     <row r="62" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E62" s="2" t="s">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="F62">
         <v>7.0994999999999999</v>
@@ -2356,7 +3246,7 @@
     </row>
     <row r="63" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E63" s="2" t="s">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="F63">
         <v>7.0994999999999999</v>
@@ -2364,7 +3254,7 @@
     </row>
     <row r="64" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E64" s="2" t="s">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="F64">
         <v>7.0994999999999999</v>
@@ -2372,7 +3262,7 @@
     </row>
     <row r="65" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E65" s="2" t="s">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="F65">
         <v>7.0994999999999999</v>
@@ -2380,7 +3270,7 @@
     </row>
     <row r="66" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E66" s="2" t="s">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="F66">
         <v>7.0994999999999999</v>
@@ -2388,7 +3278,7 @@
     </row>
     <row r="67" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E67" s="2" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="F67">
         <v>7.0994999999999999</v>
@@ -2396,7 +3286,7 @@
     </row>
     <row r="68" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E68" s="2" t="s">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="F68">
         <v>7.0994999999999999</v>
@@ -2404,7 +3294,7 @@
     </row>
     <row r="69" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E69" s="2" t="s">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="F69">
         <v>7.0994999999999999</v>
@@ -2412,7 +3302,7 @@
     </row>
     <row r="70" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E70" s="2" t="s">
-        <v>104</v>
+        <v>143</v>
       </c>
       <c r="F70">
         <v>7.0994999999999999</v>
@@ -2420,7 +3310,7 @@
     </row>
     <row r="71" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E71" s="2" t="s">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="F71">
         <v>7.0994999999999999</v>
@@ -2428,7 +3318,7 @@
     </row>
     <row r="72" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E72" s="2" t="s">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="F72">
         <v>7.0994999999999999</v>
@@ -2436,7 +3326,7 @@
     </row>
     <row r="73" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E73" s="2" t="s">
-        <v>107</v>
+        <v>146</v>
       </c>
       <c r="F73">
         <v>7.3257500000000002</v>
@@ -2444,7 +3334,7 @@
     </row>
     <row r="74" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E74" s="2" t="s">
-        <v>108</v>
+        <v>147</v>
       </c>
       <c r="F74">
         <v>7.3257500000000002</v>
@@ -2452,7 +3342,7 @@
     </row>
     <row r="75" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E75" s="2" t="s">
-        <v>109</v>
+        <v>148</v>
       </c>
       <c r="F75">
         <v>7.3257500000000002</v>
@@ -2460,7 +3350,7 @@
     </row>
     <row r="76" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E76" s="2" t="s">
-        <v>110</v>
+        <v>149</v>
       </c>
       <c r="F76">
         <v>6.9524999999999997</v>
@@ -2468,7 +3358,7 @@
     </row>
     <row r="77" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E77" s="2" t="s">
-        <v>111</v>
+        <v>150</v>
       </c>
       <c r="F77">
         <v>6.9524999999999997</v>
@@ -2476,7 +3366,7 @@
     </row>
     <row r="78" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E78" s="2" t="s">
-        <v>112</v>
+        <v>151</v>
       </c>
       <c r="F78">
         <v>6.9524999999999997</v>
@@ -2484,7 +3374,7 @@
     </row>
     <row r="79" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E79" s="2" t="s">
-        <v>113</v>
+        <v>152</v>
       </c>
       <c r="F79">
         <v>6.9524999999999997</v>
@@ -2492,7 +3382,7 @@
     </row>
     <row r="80" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E80" s="2" t="s">
-        <v>114</v>
+        <v>153</v>
       </c>
       <c r="F80">
         <v>6.9524999999999997</v>
@@ -2500,7 +3390,7 @@
     </row>
     <row r="81" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E81" s="2" t="s">
-        <v>115</v>
+        <v>154</v>
       </c>
       <c r="F81">
         <v>6.9524999999999997</v>
@@ -2508,7 +3398,7 @@
     </row>
     <row r="82" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E82" s="2" t="s">
-        <v>116</v>
+        <v>155</v>
       </c>
       <c r="F82">
         <v>6.9524999999999997</v>
@@ -2516,7 +3406,7 @@
     </row>
     <row r="83" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E83" s="2" t="s">
-        <v>117</v>
+        <v>156</v>
       </c>
       <c r="F83">
         <v>6.9524999999999997</v>
@@ -2524,7 +3414,7 @@
     </row>
     <row r="84" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E84" s="2" t="s">
-        <v>118</v>
+        <v>157</v>
       </c>
       <c r="F84">
         <v>6.9524999999999997</v>
@@ -2532,7 +3422,7 @@
     </row>
     <row r="85" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E85" s="2" t="s">
-        <v>119</v>
+        <v>158</v>
       </c>
       <c r="F85">
         <v>6.9524999999999997</v>
@@ -2540,7 +3430,7 @@
     </row>
     <row r="86" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E86" s="2" t="s">
-        <v>120</v>
+        <v>159</v>
       </c>
       <c r="F86">
         <v>7.16</v>
@@ -2548,7 +3438,7 @@
     </row>
     <row r="87" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E87" s="2" t="s">
-        <v>121</v>
+        <v>160</v>
       </c>
       <c r="F87">
         <v>7.16</v>
@@ -2556,7 +3446,7 @@
     </row>
     <row r="88" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E88" s="2" t="s">
-        <v>122</v>
+        <v>161</v>
       </c>
       <c r="F88">
         <v>7.16</v>
@@ -2564,7 +3454,7 @@
     </row>
     <row r="89" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E89" s="2" t="s">
-        <v>123</v>
+        <v>162</v>
       </c>
       <c r="F89">
         <v>7.16</v>
@@ -2572,7 +3462,7 @@
     </row>
     <row r="90" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E90" s="2" t="s">
-        <v>124</v>
+        <v>163</v>
       </c>
       <c r="F90">
         <v>7.16</v>
@@ -2580,7 +3470,7 @@
     </row>
     <row r="91" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E91" s="2" t="s">
-        <v>125</v>
+        <v>164</v>
       </c>
       <c r="F91">
         <v>7.16</v>
@@ -2588,7 +3478,7 @@
     </row>
     <row r="92" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E92" s="2" t="s">
-        <v>126</v>
+        <v>165</v>
       </c>
       <c r="F92">
         <v>7.4</v>
@@ -2596,7 +3486,7 @@
     </row>
     <row r="93" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E93" s="2" t="s">
-        <v>127</v>
+        <v>166</v>
       </c>
       <c r="F93">
         <v>7.4</v>
@@ -2604,7 +3494,7 @@
     </row>
     <row r="94" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E94" s="2" t="s">
-        <v>128</v>
+        <v>167</v>
       </c>
       <c r="F94">
         <v>7.3</v>
@@ -2612,7 +3502,7 @@
     </row>
     <row r="95" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E95" s="2" t="s">
-        <v>129</v>
+        <v>168</v>
       </c>
       <c r="F95">
         <v>7.3</v>
@@ -2620,7 +3510,7 @@
     </row>
     <row r="96" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E96" s="2" t="s">
-        <v>130</v>
+        <v>169</v>
       </c>
       <c r="F96">
         <v>7.3</v>
@@ -2628,7 +3518,7 @@
     </row>
     <row r="97" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E97" s="2" t="s">
-        <v>131</v>
+        <v>170</v>
       </c>
       <c r="F97">
         <v>7.3</v>
@@ -2636,7 +3526,7 @@
     </row>
     <row r="98" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E98" s="2" t="s">
-        <v>132</v>
+        <v>171</v>
       </c>
       <c r="F98">
         <v>7.3</v>
@@ -2644,7 +3534,7 @@
     </row>
     <row r="99" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E99" s="2" t="s">
-        <v>133</v>
+        <v>172</v>
       </c>
       <c r="F99">
         <v>7.3</v>
@@ -2652,7 +3542,7 @@
     </row>
     <row r="100" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E100" s="2" t="s">
-        <v>134</v>
+        <v>173</v>
       </c>
       <c r="F100">
         <v>6.85</v>
@@ -2660,7 +3550,7 @@
     </row>
     <row r="101" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E101" s="2" t="s">
-        <v>135</v>
+        <v>174</v>
       </c>
       <c r="F101">
         <v>6.85</v>
@@ -2668,7 +3558,7 @@
     </row>
     <row r="102" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E102" s="2" t="s">
-        <v>136</v>
+        <v>175</v>
       </c>
       <c r="F102">
         <v>6.85</v>
@@ -2676,7 +3566,7 @@
     </row>
     <row r="103" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E103" s="2" t="s">
-        <v>137</v>
+        <v>176</v>
       </c>
       <c r="F103">
         <v>6.85</v>
@@ -2684,7 +3574,7 @@
     </row>
     <row r="104" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E104" s="2" t="s">
-        <v>138</v>
+        <v>177</v>
       </c>
       <c r="F104">
         <v>6.85</v>
@@ -2692,7 +3582,7 @@
     </row>
     <row r="105" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E105" s="2" t="s">
-        <v>139</v>
+        <v>178</v>
       </c>
       <c r="F105">
         <v>6.85</v>
@@ -2700,7 +3590,7 @@
     </row>
     <row r="106" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E106" s="2" t="s">
-        <v>140</v>
+        <v>179</v>
       </c>
       <c r="F106">
         <v>6.85</v>
@@ -2708,7 +3598,7 @@
     </row>
     <row r="107" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E107" s="2" t="s">
-        <v>141</v>
+        <v>180</v>
       </c>
       <c r="F107">
         <v>6.85</v>
@@ -2716,7 +3606,7 @@
     </row>
     <row r="108" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E108" s="2" t="s">
-        <v>142</v>
+        <v>181</v>
       </c>
       <c r="F108">
         <v>6.85</v>
@@ -2724,7 +3614,7 @@
     </row>
     <row r="109" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E109" s="2" t="s">
-        <v>143</v>
+        <v>182</v>
       </c>
       <c r="F109">
         <v>6.75</v>
@@ -2732,7 +3622,7 @@
     </row>
     <row r="110" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E110" s="2" t="s">
-        <v>144</v>
+        <v>183</v>
       </c>
       <c r="F110">
         <v>6.75</v>
@@ -2740,7 +3630,7 @@
     </row>
     <row r="111" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E111" s="2" t="s">
-        <v>145</v>
+        <v>184</v>
       </c>
       <c r="F111">
         <v>6.75</v>
@@ -2748,7 +3638,7 @@
     </row>
     <row r="112" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E112" s="2" t="s">
-        <v>146</v>
+        <v>185</v>
       </c>
       <c r="F112">
         <v>6.75</v>
@@ -2756,7 +3646,7 @@
     </row>
     <row r="113" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E113" s="2" t="s">
-        <v>147</v>
+        <v>186</v>
       </c>
       <c r="F113">
         <v>6.65</v>
@@ -2764,7 +3654,7 @@
     </row>
     <row r="114" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E114" s="2" t="s">
-        <v>148</v>
+        <v>187</v>
       </c>
       <c r="F114">
         <v>6.65</v>
@@ -2772,7 +3662,7 @@
     </row>
     <row r="115" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E115" s="2" t="s">
-        <v>149</v>
+        <v>188</v>
       </c>
       <c r="F115">
         <v>6.65</v>
@@ -2780,7 +3670,7 @@
     </row>
     <row r="116" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E116" s="2" t="s">
-        <v>150</v>
+        <v>189</v>
       </c>
       <c r="F116">
         <v>6.65</v>
@@ -2788,7 +3678,7 @@
     </row>
     <row r="117" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E117" s="2" t="s">
-        <v>151</v>
+        <v>190</v>
       </c>
       <c r="F117">
         <v>6.65</v>
@@ -2796,7 +3686,7 @@
     </row>
     <row r="118" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E118" s="2" t="s">
-        <v>152</v>
+        <v>191</v>
       </c>
       <c r="F118">
         <v>6.65</v>
@@ -2804,7 +3694,7 @@
     </row>
     <row r="119" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E119" s="2" t="s">
-        <v>153</v>
+        <v>192</v>
       </c>
       <c r="F119">
         <v>6.5</v>
@@ -2812,7 +3702,7 @@
     </row>
     <row r="120" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E120" s="2" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="F120">
         <v>6.5</v>
@@ -2820,7 +3710,7 @@
     </row>
     <row r="121" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E121" s="2" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="F121">
         <v>6.5</v>
@@ -2828,7 +3718,7 @@
     </row>
     <row r="122" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E122" s="2" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="F122">
         <v>6.5</v>
@@ -2836,7 +3726,7 @@
     </row>
     <row r="123" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E123" s="2" t="s">
-        <v>157</v>
+        <v>196</v>
       </c>
       <c r="F123">
         <v>6.55</v>
@@ -2844,7 +3734,7 @@
     </row>
     <row r="124" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E124" s="2" t="s">
-        <v>158</v>
+        <v>197</v>
       </c>
       <c r="F124">
         <v>6.55</v>
@@ -2852,7 +3742,7 @@
     </row>
     <row r="125" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E125" s="2" t="s">
-        <v>159</v>
+        <v>198</v>
       </c>
       <c r="F125">
         <v>6.55</v>
@@ -2860,7 +3750,7 @@
     </row>
     <row r="126" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E126" s="2" t="s">
-        <v>160</v>
+        <v>199</v>
       </c>
       <c r="F126">
         <v>6.55</v>
@@ -2868,7 +3758,7 @@
     </row>
     <row r="127" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E127" s="2" t="s">
-        <v>161</v>
+        <v>200</v>
       </c>
       <c r="F127">
         <v>6.55</v>
@@ -2876,7 +3766,7 @@
     </row>
     <row r="128" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E128" s="2" t="s">
-        <v>162</v>
+        <v>201</v>
       </c>
       <c r="F128">
         <v>6.55</v>
@@ -2884,7 +3774,7 @@
     </row>
     <row r="129" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E129" s="2" t="s">
-        <v>163</v>
+        <v>202</v>
       </c>
       <c r="F129">
         <v>6.55</v>
@@ -2892,7 +3782,7 @@
     </row>
     <row r="130" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E130" s="2" t="s">
-        <v>164</v>
+        <v>203</v>
       </c>
       <c r="F130">
         <v>6.55</v>
@@ -2900,7 +3790,7 @@
     </row>
     <row r="131" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E131" s="2" t="s">
-        <v>165</v>
+        <v>204</v>
       </c>
       <c r="F131">
         <v>6.55</v>
@@ -2908,7 +3798,7 @@
     </row>
     <row r="132" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E132" s="2" t="s">
-        <v>166</v>
+        <v>205</v>
       </c>
       <c r="F132">
         <v>6.55</v>
@@ -2916,7 +3806,7 @@
     </row>
     <row r="133" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E133" s="2" t="s">
-        <v>167</v>
+        <v>206</v>
       </c>
       <c r="F133">
         <v>6.55</v>
@@ -2924,7 +3814,7 @@
     </row>
     <row r="134" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E134" s="2" t="s">
-        <v>168</v>
+        <v>207</v>
       </c>
       <c r="F134">
         <v>6.55</v>
@@ -2932,7 +3822,7 @@
     </row>
     <row r="135" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E135" s="2" t="s">
-        <v>169</v>
+        <v>208</v>
       </c>
       <c r="F135">
         <v>6.55</v>
@@ -2940,7 +3830,7 @@
     </row>
     <row r="136" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E136" s="2" t="s">
-        <v>170</v>
+        <v>209</v>
       </c>
       <c r="F136">
         <v>6.55</v>
@@ -2948,7 +3838,7 @@
     </row>
     <row r="137" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E137" s="2" t="s">
-        <v>171</v>
+        <v>210</v>
       </c>
       <c r="F137">
         <v>6.55</v>
@@ -2956,7 +3846,7 @@
     </row>
     <row r="138" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E138" s="2" t="s">
-        <v>172</v>
+        <v>211</v>
       </c>
       <c r="F138">
         <v>6.55</v>
@@ -2964,7 +3854,7 @@
     </row>
     <row r="139" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E139" s="2" t="s">
-        <v>173</v>
+        <v>212</v>
       </c>
       <c r="F139">
         <v>6.55</v>
@@ -2972,7 +3862,7 @@
     </row>
     <row r="140" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E140" s="2" t="s">
-        <v>174</v>
+        <v>213</v>
       </c>
       <c r="F140">
         <v>6.55</v>
@@ -2980,7 +3870,7 @@
     </row>
     <row r="141" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E141" s="2" t="s">
-        <v>175</v>
+        <v>214</v>
       </c>
       <c r="F141">
         <v>6.55</v>
@@ -2988,7 +3878,7 @@
     </row>
     <row r="142" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E142" s="2" t="s">
-        <v>176</v>
+        <v>215</v>
       </c>
       <c r="F142">
         <v>6.55</v>
@@ -2996,7 +3886,7 @@
     </row>
     <row r="143" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E143" s="2" t="s">
-        <v>177</v>
+        <v>216</v>
       </c>
       <c r="F143">
         <v>6.55</v>
@@ -3004,7 +3894,7 @@
     </row>
     <row r="144" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E144" s="2" t="s">
-        <v>178</v>
+        <v>217</v>
       </c>
       <c r="F144">
         <v>6.55</v>
@@ -3012,7 +3902,7 @@
     </row>
     <row r="145" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E145" s="2" t="s">
-        <v>179</v>
+        <v>218</v>
       </c>
       <c r="F145">
         <v>6.55</v>
@@ -3020,7 +3910,7 @@
     </row>
     <row r="146" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E146" s="2" t="s">
-        <v>180</v>
+        <v>219</v>
       </c>
       <c r="F146">
         <v>6.55</v>
@@ -3028,7 +3918,7 @@
     </row>
     <row r="147" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E147" s="2" t="s">
-        <v>181</v>
+        <v>220</v>
       </c>
       <c r="F147">
         <v>6.55</v>
@@ -3036,7 +3926,7 @@
     </row>
     <row r="148" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E148" s="2" t="s">
-        <v>182</v>
+        <v>221</v>
       </c>
       <c r="F148">
         <v>6.55</v>
@@ -3044,7 +3934,7 @@
     </row>
     <row r="149" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E149" s="2" t="s">
-        <v>183</v>
+        <v>222</v>
       </c>
       <c r="F149">
         <v>6.55</v>
@@ -3052,7 +3942,7 @@
     </row>
     <row r="150" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E150" s="2" t="s">
-        <v>184</v>
+        <v>223</v>
       </c>
       <c r="F150">
         <v>6.55</v>
@@ -3060,7 +3950,7 @@
     </row>
     <row r="151" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E151" s="2" t="s">
-        <v>185</v>
+        <v>224</v>
       </c>
       <c r="F151">
         <v>6.55</v>
@@ -3068,7 +3958,7 @@
     </row>
     <row r="152" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E152" s="2" t="s">
-        <v>186</v>
+        <v>225</v>
       </c>
       <c r="F152">
         <v>6.55</v>
@@ -3076,7 +3966,7 @@
     </row>
     <row r="153" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E153" s="2" t="s">
-        <v>187</v>
+        <v>226</v>
       </c>
       <c r="F153">
         <v>6.55</v>
@@ -3084,7 +3974,7 @@
     </row>
     <row r="154" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E154" s="2" t="s">
-        <v>188</v>
+        <v>227</v>
       </c>
       <c r="F154">
         <v>6.55</v>
@@ -3092,7 +3982,7 @@
     </row>
     <row r="155" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E155" s="2" t="s">
-        <v>189</v>
+        <v>228</v>
       </c>
       <c r="F155">
         <v>6.9</v>
@@ -3100,7 +3990,7 @@
     </row>
     <row r="156" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E156" s="2" t="s">
-        <v>190</v>
+        <v>229</v>
       </c>
       <c r="F156">
         <v>6.9</v>
@@ -3108,7 +3998,7 @@
     </row>
     <row r="157" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E157" s="2" t="s">
-        <v>191</v>
+        <v>230</v>
       </c>
       <c r="F157">
         <v>7</v>
@@ -3116,7 +4006,7 @@
     </row>
     <row r="158" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E158" s="2" t="s">
-        <v>192</v>
+        <v>231</v>
       </c>
       <c r="F158">
         <v>7</v>
@@ -3124,7 +4014,7 @@
     </row>
     <row r="159" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E159" s="2" t="s">
-        <v>193</v>
+        <v>232</v>
       </c>
       <c r="F159">
         <v>7</v>
@@ -3132,7 +4022,7 @@
     </row>
     <row r="160" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E160" s="2" t="s">
-        <v>194</v>
+        <v>233</v>
       </c>
       <c r="F160">
         <v>7.2</v>
@@ -3140,7 +4030,7 @@
     </row>
     <row r="161" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E161" s="2" t="s">
-        <v>195</v>
+        <v>234</v>
       </c>
       <c r="F161">
         <v>6.875</v>
@@ -3148,7 +4038,7 @@
     </row>
     <row r="162" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E162" s="2" t="s">
-        <v>196</v>
+        <v>235</v>
       </c>
       <c r="F162">
         <v>7.35</v>
@@ -3156,7 +4046,7 @@
     </row>
     <row r="163" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E163" s="2" t="s">
-        <v>197</v>
+        <v>236</v>
       </c>
       <c r="F163">
         <v>7.35</v>
@@ -3164,7 +4054,7 @@
     </row>
     <row r="164" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E164" s="2" t="s">
-        <v>198</v>
+        <v>237</v>
       </c>
       <c r="F164">
         <v>7.39</v>
@@ -3172,7 +4062,7 @@
     </row>
     <row r="165" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E165" s="2" t="s">
-        <v>199</v>
+        <v>238</v>
       </c>
       <c r="F165">
         <v>7.39</v>
@@ -3180,7 +4070,7 @@
     </row>
     <row r="166" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E166" s="2" t="s">
-        <v>200</v>
+        <v>239</v>
       </c>
       <c r="F166">
         <v>7.39</v>
@@ -3188,7 +4078,7 @@
     </row>
     <row r="167" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E167" s="2" t="s">
-        <v>201</v>
+        <v>240</v>
       </c>
       <c r="F167">
         <v>7.42</v>
@@ -3196,7 +4086,7 @@
     </row>
     <row r="168" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E168" s="2" t="s">
-        <v>202</v>
+        <v>241</v>
       </c>
       <c r="F168">
         <v>7.49</v>
@@ -3204,7 +4094,7 @@
     </row>
     <row r="169" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E169" s="2" t="s">
-        <v>203</v>
+        <v>242</v>
       </c>
       <c r="F169">
         <v>7.49</v>
@@ -3212,7 +4102,7 @@
     </row>
     <row r="170" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E170" s="2" t="s">
-        <v>204</v>
+        <v>243</v>
       </c>
       <c r="F170">
         <v>7.49</v>
@@ -3220,7 +4110,7 @@
     </row>
     <row r="171" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E171" s="2" t="s">
-        <v>205</v>
+        <v>244</v>
       </c>
       <c r="F171">
         <v>7.49</v>
@@ -3228,7 +4118,7 @@
     </row>
     <row r="172" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E172" s="2" t="s">
-        <v>206</v>
+        <v>245</v>
       </c>
       <c r="F172">
         <v>7.3</v>
@@ -3236,7 +4126,7 @@
     </row>
     <row r="173" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E173" s="2" t="s">
-        <v>207</v>
+        <v>246</v>
       </c>
       <c r="F173">
         <v>7.3</v>
@@ -3244,7 +4134,7 @@
     </row>
     <row r="174" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E174" s="2" t="s">
-        <v>208</v>
+        <v>247</v>
       </c>
       <c r="F174">
         <v>7.3</v>
@@ -3252,7 +4142,7 @@
     </row>
     <row r="175" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E175" s="2" t="s">
-        <v>209</v>
+        <v>248</v>
       </c>
       <c r="F175">
         <v>7.3</v>
@@ -3260,7 +4150,7 @@
     </row>
     <row r="176" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E176" s="2" t="s">
-        <v>210</v>
+        <v>249</v>
       </c>
       <c r="F176">
         <v>7.3</v>
@@ -3268,7 +4158,7 @@
     </row>
     <row r="177" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E177" s="2" t="s">
-        <v>211</v>
+        <v>250</v>
       </c>
       <c r="F177">
         <v>7.5</v>
@@ -3276,7 +4166,7 @@
     </row>
     <row r="178" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E178" s="2" t="s">
-        <v>212</v>
+        <v>251</v>
       </c>
       <c r="F178">
         <v>7.5</v>
@@ -3284,7 +4174,7 @@
     </row>
     <row r="179" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E179" s="2" t="s">
-        <v>213</v>
+        <v>252</v>
       </c>
       <c r="F179">
         <v>7.5</v>
@@ -3292,7 +4182,7 @@
     </row>
     <row r="180" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E180" s="2" t="s">
-        <v>214</v>
+        <v>253</v>
       </c>
       <c r="F180">
         <v>7.5</v>
@@ -3300,7 +4190,7 @@
     </row>
     <row r="181" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E181" s="2" t="s">
-        <v>215</v>
+        <v>254</v>
       </c>
       <c r="F181">
         <v>7.5</v>
@@ -3308,7 +4198,7 @@
     </row>
     <row r="182" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E182" s="2" t="s">
-        <v>216</v>
+        <v>255</v>
       </c>
       <c r="F182">
         <v>7.5</v>
@@ -3316,7 +4206,7 @@
     </row>
     <row r="183" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E183" s="2" t="s">
-        <v>217</v>
+        <v>256</v>
       </c>
       <c r="F183">
         <v>7.5</v>
@@ -3324,7 +4214,7 @@
     </row>
     <row r="184" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E184" s="2" t="s">
-        <v>218</v>
+        <v>257</v>
       </c>
       <c r="F184">
         <v>7.5</v>
@@ -3332,7 +4222,7 @@
     </row>
     <row r="185" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E185" s="2" t="s">
-        <v>219</v>
+        <v>258</v>
       </c>
       <c r="F185">
         <v>7.5</v>
@@ -3340,7 +4230,7 @@
     </row>
     <row r="186" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E186" s="2" t="s">
-        <v>220</v>
+        <v>259</v>
       </c>
       <c r="F186">
         <v>7.5</v>
@@ -3348,7 +4238,7 @@
     </row>
     <row r="187" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E187" s="2" t="s">
-        <v>221</v>
+        <v>260</v>
       </c>
       <c r="F187">
         <v>7.5</v>
@@ -3356,7 +4246,7 @@
     </row>
     <row r="188" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E188" s="2" t="s">
-        <v>222</v>
+        <v>261</v>
       </c>
       <c r="F188">
         <v>7.5</v>
@@ -3364,7 +4254,7 @@
     </row>
     <row r="189" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E189" s="2" t="s">
-        <v>223</v>
+        <v>262</v>
       </c>
       <c r="F189">
         <v>7.5</v>
@@ -3372,7 +4262,7 @@
     </row>
     <row r="190" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E190" s="2" t="s">
-        <v>224</v>
+        <v>263</v>
       </c>
       <c r="F190">
         <v>7.5</v>
@@ -3380,7 +4270,7 @@
     </row>
     <row r="191" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E191" s="2" t="s">
-        <v>225</v>
+        <v>264</v>
       </c>
       <c r="F191">
         <v>7.5</v>
@@ -3388,7 +4278,7 @@
     </row>
     <row r="192" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E192" s="2" t="s">
-        <v>226</v>
+        <v>265</v>
       </c>
       <c r="F192">
         <v>7.5</v>
@@ -3396,7 +4286,7 @@
     </row>
     <row r="193" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E193" s="2" t="s">
-        <v>227</v>
+        <v>266</v>
       </c>
       <c r="F193">
         <v>7.85</v>
@@ -3404,7 +4294,7 @@
     </row>
     <row r="194" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E194" s="2" t="s">
-        <v>228</v>
+        <v>267</v>
       </c>
       <c r="F194">
         <v>7.85</v>
@@ -3412,7 +4302,7 @@
     </row>
     <row r="195" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E195" s="2" t="s">
-        <v>229</v>
+        <v>268</v>
       </c>
       <c r="F195">
         <v>7.85</v>
@@ -3420,7 +4310,7 @@
     </row>
     <row r="196" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E196" s="2" t="s">
-        <v>230</v>
+        <v>269</v>
       </c>
       <c r="F196">
         <v>7.85</v>
@@ -3428,7 +4318,7 @@
     </row>
     <row r="197" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E197" s="2" t="s">
-        <v>231</v>
+        <v>270</v>
       </c>
       <c r="F197">
         <v>7.85</v>
@@ -3436,7 +4326,7 @@
     </row>
     <row r="198" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E198" s="2" t="s">
-        <v>232</v>
+        <v>271</v>
       </c>
       <c r="F198">
         <v>7.85</v>
@@ -3444,7 +4334,7 @@
     </row>
     <row r="199" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E199" s="2" t="s">
-        <v>233</v>
+        <v>272</v>
       </c>
       <c r="F199">
         <v>7.85</v>
@@ -3452,7 +4342,7 @@
     </row>
     <row r="200" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E200" s="2" t="s">
-        <v>234</v>
+        <v>273</v>
       </c>
       <c r="F200">
         <v>7.85</v>
@@ -3460,7 +4350,7 @@
     </row>
     <row r="201" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E201" s="2" t="s">
-        <v>235</v>
+        <v>274</v>
       </c>
       <c r="F201">
         <v>7.85</v>
@@ -3468,7 +4358,7 @@
     </row>
     <row r="202" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E202" s="2" t="s">
-        <v>236</v>
+        <v>275</v>
       </c>
       <c r="F202">
         <v>7.85</v>
@@ -3476,7 +4366,7 @@
     </row>
     <row r="203" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E203" s="2" t="s">
-        <v>237</v>
+        <v>276</v>
       </c>
       <c r="F203">
         <v>7.85</v>
@@ -3484,7 +4374,7 @@
     </row>
     <row r="204" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E204" s="2" t="s">
-        <v>238</v>
+        <v>277</v>
       </c>
       <c r="F204">
         <v>7.85</v>
@@ -3492,7 +4382,7 @@
     </row>
     <row r="205" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E205" s="2" t="s">
-        <v>239</v>
+        <v>278</v>
       </c>
       <c r="F205">
         <v>7.85</v>
@@ -3500,7 +4390,7 @@
     </row>
     <row r="206" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E206" s="2" t="s">
-        <v>240</v>
+        <v>279</v>
       </c>
       <c r="F206">
         <v>7.85</v>
@@ -3508,7 +4398,7 @@
     </row>
     <row r="207" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E207" s="2" t="s">
-        <v>241</v>
+        <v>280</v>
       </c>
       <c r="F207">
         <v>7.85</v>
@@ -3516,7 +4406,7 @@
     </row>
     <row r="208" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E208" s="2" t="s">
-        <v>242</v>
+        <v>281</v>
       </c>
       <c r="F208">
         <v>7.85</v>
@@ -3524,7 +4414,7 @@
     </row>
     <row r="209" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E209" s="2" t="s">
-        <v>243</v>
+        <v>282</v>
       </c>
       <c r="F209">
         <v>7.85</v>
@@ -3532,7 +4422,7 @@
     </row>
     <row r="210" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E210" s="2" t="s">
-        <v>244</v>
+        <v>283</v>
       </c>
       <c r="F210">
         <v>7.85</v>
@@ -3540,7 +4430,7 @@
     </row>
     <row r="211" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E211" s="2" t="s">
-        <v>245</v>
+        <v>284</v>
       </c>
       <c r="F211">
         <v>7.85</v>
@@ -3548,7 +4438,7 @@
     </row>
     <row r="212" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E212" s="2" t="s">
-        <v>246</v>
+        <v>285</v>
       </c>
       <c r="F212">
         <v>7.85</v>
@@ -3556,7 +4446,7 @@
     </row>
     <row r="213" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E213" s="2" t="s">
-        <v>247</v>
+        <v>286</v>
       </c>
       <c r="F213">
         <v>7.85</v>
@@ -3564,7 +4454,7 @@
     </row>
     <row r="214" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E214" s="2" t="s">
-        <v>248</v>
+        <v>287</v>
       </c>
       <c r="F214">
         <v>7.85</v>
@@ -3572,7 +4462,7 @@
     </row>
     <row r="215" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E215" s="2" t="s">
-        <v>249</v>
+        <v>288</v>
       </c>
       <c r="F215">
         <v>7.85</v>
@@ -3580,7 +4470,7 @@
     </row>
     <row r="216" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E216" s="2" t="s">
-        <v>250</v>
+        <v>289</v>
       </c>
       <c r="F216">
         <v>7.85</v>
@@ -3588,7 +4478,7 @@
     </row>
     <row r="217" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E217" s="2" t="s">
-        <v>251</v>
+        <v>290</v>
       </c>
       <c r="F217">
         <v>7.85</v>
@@ -3596,7 +4486,7 @@
     </row>
     <row r="218" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E218" s="2" t="s">
-        <v>0</v>
+        <v>291</v>
       </c>
       <c r="F218">
         <v>7.85</v>
@@ -3604,7 +4494,7 @@
     </row>
     <row r="219" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E219" s="2" t="s">
-        <v>1</v>
+        <v>292</v>
       </c>
       <c r="F219">
         <v>7.85</v>
@@ -3612,7 +4502,7 @@
     </row>
     <row r="220" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E220" s="2" t="s">
-        <v>2</v>
+        <v>293</v>
       </c>
       <c r="F220">
         <v>7.85</v>
@@ -3620,7 +4510,7 @@
     </row>
     <row r="221" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E221" s="2" t="s">
-        <v>3</v>
+        <v>294</v>
       </c>
       <c r="F221">
         <v>7.85</v>
@@ -3628,7 +4518,7 @@
     </row>
     <row r="222" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E222" s="2" t="s">
-        <v>4</v>
+        <v>295</v>
       </c>
       <c r="F222">
         <v>7.85</v>
@@ -3636,7 +4526,7 @@
     </row>
     <row r="223" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E223" s="2" t="s">
-        <v>5</v>
+        <v>296</v>
       </c>
       <c r="F223">
         <v>7.85</v>
@@ -3644,7 +4534,7 @@
     </row>
     <row r="224" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E224" s="2" t="s">
-        <v>6</v>
+        <v>297</v>
       </c>
       <c r="F224">
         <v>7.85</v>
@@ -3652,7 +4542,7 @@
     </row>
     <row r="225" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E225" s="2" t="s">
-        <v>7</v>
+        <v>298</v>
       </c>
       <c r="F225">
         <v>7.85</v>
@@ -3660,7 +4550,7 @@
     </row>
     <row r="226" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E226" s="2" t="s">
-        <v>8</v>
+        <v>299</v>
       </c>
       <c r="F226">
         <v>7.85</v>
@@ -3668,7 +4558,7 @@
     </row>
     <row r="227" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E227" s="2" t="s">
-        <v>9</v>
+        <v>300</v>
       </c>
       <c r="F227">
         <v>7.85</v>
@@ -3676,7 +4566,7 @@
     </row>
     <row r="228" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E228" s="2" t="s">
-        <v>10</v>
+        <v>301</v>
       </c>
       <c r="F228">
         <v>7.85</v>
@@ -3684,7 +4574,7 @@
     </row>
     <row r="229" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E229" s="2" t="s">
-        <v>11</v>
+        <v>302</v>
       </c>
       <c r="F229">
         <v>7.85</v>
@@ -3692,7 +4582,7 @@
     </row>
     <row r="230" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E230" s="2" t="s">
-        <v>12</v>
+        <v>303</v>
       </c>
       <c r="F230">
         <v>7.85</v>
@@ -3700,7 +4590,7 @@
     </row>
     <row r="231" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E231" s="2" t="s">
-        <v>13</v>
+        <v>304</v>
       </c>
       <c r="F231">
         <v>7.85</v>
@@ -3708,7 +4598,7 @@
     </row>
     <row r="232" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E232" t="s">
-        <v>14</v>
+        <v>305</v>
       </c>
       <c r="F232">
         <v>7.85</v>
@@ -3716,7 +4606,7 @@
     </row>
     <row r="233" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E233" t="s">
-        <v>15</v>
+        <v>306</v>
       </c>
       <c r="F233">
         <v>7.85</v>
@@ -3724,7 +4614,7 @@
     </row>
     <row r="234" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E234" t="s">
-        <v>16</v>
+        <v>307</v>
       </c>
       <c r="F234">
         <v>7.5</v>
@@ -3732,7 +4622,7 @@
     </row>
     <row r="235" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E235" t="s">
-        <v>17</v>
+        <v>308</v>
       </c>
       <c r="F235">
         <v>7.5</v>
@@ -3740,7 +4630,7 @@
     </row>
     <row r="236" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E236" t="s">
-        <v>18</v>
+        <v>309</v>
       </c>
       <c r="F236">
         <v>7.5</v>
@@ -3748,7 +4638,7 @@
     </row>
     <row r="237" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E237" t="s">
-        <v>19</v>
+        <v>310</v>
       </c>
       <c r="F237">
         <v>7.5</v>
@@ -3756,7 +4646,7 @@
     </row>
     <row r="238" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E238" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="F238">
         <v>7.5</v>
@@ -3764,7 +4654,7 @@
     </row>
     <row r="239" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E239" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="F239">
         <v>7.5</v>
@@ -3772,7 +4662,7 @@
     </row>
     <row r="240" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E240" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="F240">
         <v>7.5</v>
@@ -3780,7 +4670,7 @@
     </row>
     <row r="241" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E241" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="F241">
         <v>7.5</v>
@@ -3788,7 +4678,7 @@
     </row>
     <row r="242" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E242" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="F242">
         <v>7.5</v>
@@ -3796,7 +4686,7 @@
     </row>
     <row r="243" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E243" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="F243">
         <v>7.5</v>
@@ -3804,7 +4694,7 @@
     </row>
     <row r="244" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E244" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="F244">
         <v>7.5</v>
@@ -3812,7 +4702,7 @@
     </row>
     <row r="245" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E245" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="F245">
         <v>7.5</v>
@@ -3820,7 +4710,7 @@
     </row>
     <row r="246" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E246" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="F246">
         <v>7.85</v>
@@ -3828,7 +4718,7 @@
     </row>
     <row r="247" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E247" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="F247">
         <v>7.85</v>
@@ -3836,7 +4726,7 @@
     </row>
     <row r="248" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E248" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="F248">
         <v>7.85</v>
@@ -3844,7 +4734,7 @@
     </row>
     <row r="249" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E249" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="F249">
         <v>7.85</v>
@@ -3852,7 +4742,7 @@
     </row>
     <row r="250" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E250" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F250">
         <v>7.85</v>
@@ -3860,7 +4750,7 @@
     </row>
     <row r="251" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E251" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="F251">
         <v>7.85</v>
@@ -3868,7 +4758,7 @@
     </row>
     <row r="252" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E252" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="F252">
         <v>7.85</v>
@@ -3876,10 +4766,450 @@
     </row>
     <row r="253" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E253" t="s">
+        <v>19</v>
+      </c>
+      <c r="F253">
+        <v>7.85</v>
+      </c>
+    </row>
+    <row r="254" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E254" t="s">
+        <v>20</v>
+      </c>
+      <c r="F254">
+        <v>7.85</v>
+      </c>
+    </row>
+    <row r="255" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E255" t="s">
+        <v>21</v>
+      </c>
+      <c r="F255">
+        <v>7.85</v>
+      </c>
+    </row>
+    <row r="256" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E256" t="s">
+        <v>22</v>
+      </c>
+      <c r="F256">
+        <v>7.85</v>
+      </c>
+    </row>
+    <row r="257" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E257" t="s">
+        <v>23</v>
+      </c>
+      <c r="F257">
+        <v>7.85</v>
+      </c>
+    </row>
+    <row r="258" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E258" t="s">
+        <v>24</v>
+      </c>
+      <c r="F258">
+        <v>7.85</v>
+      </c>
+    </row>
+    <row r="259" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E259" t="s">
+        <v>25</v>
+      </c>
+      <c r="F259">
+        <v>7.85</v>
+      </c>
+    </row>
+    <row r="260" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E260" t="s">
+        <v>26</v>
+      </c>
+      <c r="F260">
+        <v>7.85</v>
+      </c>
+    </row>
+    <row r="261" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E261" t="s">
+        <v>27</v>
+      </c>
+      <c r="F261">
+        <v>7.85</v>
+      </c>
+    </row>
+    <row r="262" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E262" t="s">
+        <v>28</v>
+      </c>
+      <c r="F262">
+        <v>7.85</v>
+      </c>
+    </row>
+    <row r="263" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E263" t="s">
+        <v>29</v>
+      </c>
+      <c r="F263">
+        <v>7.85</v>
+      </c>
+    </row>
+    <row r="264" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E264" t="s">
+        <v>30</v>
+      </c>
+      <c r="F264">
+        <v>7.85</v>
+      </c>
+    </row>
+    <row r="265" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E265" t="s">
+        <v>31</v>
+      </c>
+      <c r="F265">
+        <v>7.85</v>
+      </c>
+    </row>
+    <row r="266" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E266" t="s">
+        <v>32</v>
+      </c>
+      <c r="F266">
+        <v>7.85</v>
+      </c>
+    </row>
+    <row r="267" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E267" t="s">
+        <v>33</v>
+      </c>
+      <c r="F267">
+        <v>7.85</v>
+      </c>
+    </row>
+    <row r="268" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E268" t="s">
+        <v>34</v>
+      </c>
+      <c r="F268">
+        <v>7.85</v>
+      </c>
+    </row>
+    <row r="269" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E269" t="s">
         <v>35</v>
       </c>
-      <c r="F253">
-        <v>7.85</v>
+      <c r="F269">
+        <v>7.85</v>
+      </c>
+    </row>
+    <row r="270" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E270" t="s">
+        <v>36</v>
+      </c>
+      <c r="F270">
+        <v>7.85</v>
+      </c>
+    </row>
+    <row r="271" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E271" t="s">
+        <v>37</v>
+      </c>
+      <c r="F271">
+        <v>7.85</v>
+      </c>
+    </row>
+    <row r="272" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E272" t="s">
+        <v>38</v>
+      </c>
+      <c r="F272">
+        <v>7.1749999999999998</v>
+      </c>
+    </row>
+    <row r="273" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E273" t="s">
+        <v>39</v>
+      </c>
+      <c r="F273">
+        <v>7.1749999999999998</v>
+      </c>
+    </row>
+    <row r="274" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E274" t="s">
+        <v>40</v>
+      </c>
+      <c r="F274">
+        <v>7.1749999999999998</v>
+      </c>
+    </row>
+    <row r="275" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E275" t="s">
+        <v>41</v>
+      </c>
+      <c r="F275">
+        <v>7.1749999999999998</v>
+      </c>
+    </row>
+    <row r="276" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E276" t="s">
+        <v>42</v>
+      </c>
+      <c r="F276">
+        <v>7.1749999999999998</v>
+      </c>
+    </row>
+    <row r="277" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E277" t="s">
+        <v>43</v>
+      </c>
+      <c r="F277">
+        <v>7.1749999999999998</v>
+      </c>
+    </row>
+    <row r="278" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E278" t="s">
+        <v>44</v>
+      </c>
+      <c r="F278">
+        <v>7.1749999999999998</v>
+      </c>
+    </row>
+    <row r="279" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E279" t="s">
+        <v>45</v>
+      </c>
+      <c r="F279">
+        <v>7.1749999999999998</v>
+      </c>
+    </row>
+    <row r="280" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E280" t="s">
+        <v>46</v>
+      </c>
+      <c r="F280">
+        <v>7.85</v>
+      </c>
+    </row>
+    <row r="281" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E281" t="s">
+        <v>47</v>
+      </c>
+      <c r="F281">
+        <v>7.85</v>
+      </c>
+    </row>
+    <row r="282" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E282" t="s">
+        <v>48</v>
+      </c>
+      <c r="F282">
+        <v>7.85</v>
+      </c>
+    </row>
+    <row r="283" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E283" t="s">
+        <v>49</v>
+      </c>
+      <c r="F283">
+        <v>7.85</v>
+      </c>
+    </row>
+    <row r="284" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E284" t="s">
+        <v>50</v>
+      </c>
+      <c r="F284">
+        <v>7.85</v>
+      </c>
+    </row>
+    <row r="285" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E285" t="s">
+        <v>51</v>
+      </c>
+      <c r="F285">
+        <v>7.85</v>
+      </c>
+    </row>
+    <row r="286" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E286" t="s">
+        <v>52</v>
+      </c>
+      <c r="F286">
+        <v>7.85</v>
+      </c>
+    </row>
+    <row r="287" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E287" t="s">
+        <v>53</v>
+      </c>
+      <c r="F287">
+        <v>7.85</v>
+      </c>
+    </row>
+    <row r="288" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E288" t="s">
+        <v>54</v>
+      </c>
+      <c r="F288">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="289" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E289" t="s">
+        <v>55</v>
+      </c>
+      <c r="F289">
+        <v>7.65</v>
+      </c>
+    </row>
+    <row r="290" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E290" t="s">
+        <v>56</v>
+      </c>
+      <c r="F290">
+        <v>7.7519999999999998</v>
+      </c>
+    </row>
+    <row r="291" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E291" t="s">
+        <v>57</v>
+      </c>
+      <c r="F291">
+        <v>7.7519999999999998</v>
+      </c>
+    </row>
+    <row r="292" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E292" t="s">
+        <v>58</v>
+      </c>
+      <c r="F292">
+        <v>7.7530000000000001</v>
+      </c>
+    </row>
+    <row r="293" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E293" t="s">
+        <v>59</v>
+      </c>
+      <c r="F293">
+        <v>7.7530000000000001</v>
+      </c>
+    </row>
+    <row r="294" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E294" t="s">
+        <v>60</v>
+      </c>
+      <c r="F294">
+        <v>7.7530000000000001</v>
+      </c>
+    </row>
+    <row r="295" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E295" t="s">
+        <v>61</v>
+      </c>
+      <c r="F295">
+        <v>7.7530000000000001</v>
+      </c>
+    </row>
+    <row r="296" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E296" t="s">
+        <v>62</v>
+      </c>
+      <c r="F296">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="297" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E297" t="s">
+        <v>63</v>
+      </c>
+      <c r="F297">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="298" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E298" t="s">
+        <v>64</v>
+      </c>
+      <c r="F298">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="299" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E299" t="s">
+        <v>65</v>
+      </c>
+      <c r="F299">
+        <v>7.5250000000000004</v>
+      </c>
+    </row>
+    <row r="300" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E300" t="s">
+        <v>66</v>
+      </c>
+      <c r="F300">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="301" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E301" t="s">
+        <v>67</v>
+      </c>
+      <c r="F301">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="302" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E302" t="s">
+        <v>68</v>
+      </c>
+      <c r="F302">
+        <v>7.125</v>
+      </c>
+    </row>
+    <row r="303" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E303" t="s">
+        <v>69</v>
+      </c>
+      <c r="F303">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="304" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E304" t="s">
+        <v>70</v>
+      </c>
+      <c r="F304">
+        <v>7.35</v>
+      </c>
+    </row>
+    <row r="305" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E305" t="s">
+        <v>71</v>
+      </c>
+      <c r="F305">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="306" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E306" t="s">
+        <v>72</v>
+      </c>
+      <c r="F306">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="307" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E307" t="s">
+        <v>73</v>
+      </c>
+      <c r="F307">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="308" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E308" t="s">
+        <v>74</v>
+      </c>
+      <c r="F308">
+        <v>7.3</v>
       </c>
     </row>
   </sheetData>

--- a/pruebas.xlsx
+++ b/pruebas.xlsx
@@ -2283,7 +2283,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="E2:F323"/>
+  <dimension ref="E2:F324"/>
   <sheetViews>
     <sheetView topLeftCell="A269" workbookViewId="0">
       <selection activeCell="F254" sqref="F254:F303"/>
@@ -5514,6 +5514,16 @@
         <v>7.3</v>
       </c>
     </row>
+    <row r="324">
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>30-11-2022</t>
+        </is>
+      </c>
+      <c r="F324" t="n">
+        <v>7.3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/pruebas.xlsx
+++ b/pruebas.xlsx
@@ -2283,7 +2283,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="E2:F324"/>
+  <dimension ref="E2:F328"/>
   <sheetViews>
     <sheetView topLeftCell="A269" workbookViewId="0">
       <selection activeCell="F254" sqref="F254:F303"/>
@@ -5524,6 +5524,46 @@
         <v>7.3</v>
       </c>
     </row>
+    <row r="325">
+      <c r="E325" t="inlineStr">
+        <is>
+          <t>01-12-2022</t>
+        </is>
+      </c>
+      <c r="F325" t="n">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>02-12-2022</t>
+        </is>
+      </c>
+      <c r="F326" t="n">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>03-12-2022</t>
+        </is>
+      </c>
+      <c r="F327" t="n">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="E328" t="inlineStr">
+        <is>
+          <t>04-12-2022</t>
+        </is>
+      </c>
+      <c r="F328" t="n">
+        <v>7.3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/pruebas.xlsx
+++ b/pruebas.xlsx
@@ -2283,7 +2283,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="E2:F328"/>
+  <dimension ref="E2:F329"/>
   <sheetViews>
     <sheetView topLeftCell="A269" workbookViewId="0">
       <selection activeCell="F254" sqref="F254:F303"/>
@@ -5564,6 +5564,16 @@
         <v>7.3</v>
       </c>
     </row>
+    <row r="329">
+      <c r="E329" t="inlineStr">
+        <is>
+          <t>05-12-2022</t>
+        </is>
+      </c>
+      <c r="F329" t="n">
+        <v>7.3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/pruebas.xlsx
+++ b/pruebas.xlsx
@@ -2283,7 +2283,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="E2:F329"/>
+  <dimension ref="E2:F330"/>
   <sheetViews>
     <sheetView topLeftCell="A269" workbookViewId="0">
       <selection activeCell="F254" sqref="F254:F303"/>
@@ -5574,6 +5574,16 @@
         <v>7.3</v>
       </c>
     </row>
+    <row r="330">
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>06-12-2022</t>
+        </is>
+      </c>
+      <c r="F330" t="n">
+        <v>7.3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/pruebas.xlsx
+++ b/pruebas.xlsx
@@ -2283,7 +2283,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="E2:F330"/>
+  <dimension ref="E2:F333"/>
   <sheetViews>
     <sheetView topLeftCell="A269" workbookViewId="0">
       <selection activeCell="F254" sqref="F254:F303"/>
@@ -5584,6 +5584,36 @@
         <v>7.3</v>
       </c>
     </row>
+    <row r="331">
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>07-12-2022</t>
+        </is>
+      </c>
+      <c r="F331" t="n">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>08-12-2022</t>
+        </is>
+      </c>
+      <c r="F332" t="n">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>09-12-2022</t>
+        </is>
+      </c>
+      <c r="F333" t="n">
+        <v>7.3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/pruebas.xlsx
+++ b/pruebas.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -2283,7 +2283,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="E2:F333"/>
+  <dimension ref="E2:F335"/>
   <sheetViews>
     <sheetView topLeftCell="A269" workbookViewId="0">
       <selection activeCell="F254" sqref="F254:F303"/>
@@ -5614,6 +5614,26 @@
         <v>7.3</v>
       </c>
     </row>
+    <row r="334">
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>10-12-2022</t>
+        </is>
+      </c>
+      <c r="F334" t="n">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="E335" t="inlineStr">
+        <is>
+          <t>11-12-2022</t>
+        </is>
+      </c>
+      <c r="F335" t="n">
+        <v>7.3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/pruebas.xlsx
+++ b/pruebas.xlsx
@@ -2283,7 +2283,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="E2:F335"/>
+  <dimension ref="E2:F338"/>
   <sheetViews>
     <sheetView topLeftCell="A269" workbookViewId="0">
       <selection activeCell="F254" sqref="F254:F303"/>
@@ -5634,6 +5634,36 @@
         <v>7.3</v>
       </c>
     </row>
+    <row r="336">
+      <c r="E336" t="inlineStr">
+        <is>
+          <t>12-12-2022</t>
+        </is>
+      </c>
+      <c r="F336" t="n">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="E337" t="inlineStr">
+        <is>
+          <t>13-12-2022</t>
+        </is>
+      </c>
+      <c r="F337" t="n">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="E338" t="inlineStr">
+        <is>
+          <t>14-12-2022</t>
+        </is>
+      </c>
+      <c r="F338" t="n">
+        <v>7.3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/pruebas.xlsx
+++ b/pruebas.xlsx
@@ -2283,7 +2283,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="E2:F338"/>
+  <dimension ref="E2:F343"/>
   <sheetViews>
     <sheetView topLeftCell="A269" workbookViewId="0">
       <selection activeCell="F254" sqref="F254:F303"/>
@@ -5664,6 +5664,56 @@
         <v>7.3</v>
       </c>
     </row>
+    <row r="339">
+      <c r="E339" t="inlineStr">
+        <is>
+          <t>15-12-2022</t>
+        </is>
+      </c>
+      <c r="F339" t="n">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="E340" t="inlineStr">
+        <is>
+          <t>16-12-2022</t>
+        </is>
+      </c>
+      <c r="F340" t="n">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="E341" t="inlineStr">
+        <is>
+          <t>17-12-2022</t>
+        </is>
+      </c>
+      <c r="F341" t="n">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="E342" t="inlineStr">
+        <is>
+          <t>18-12-2022</t>
+        </is>
+      </c>
+      <c r="F342" t="n">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="E343" t="inlineStr">
+        <is>
+          <t>19-12-2022</t>
+        </is>
+      </c>
+      <c r="F343" t="n">
+        <v>7.3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
